--- a/Design/QA_OnineClothes_EffortEstimation.xlsx
+++ b/Design/QA_OnineClothes_EffortEstimation.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="99">
   <si>
     <t>Phase</t>
   </si>
@@ -249,7 +249,7 @@
     <t>Review and Refine</t>
   </si>
   <si>
-    <t>Update Documents</t>
+    <t>Update</t>
   </si>
   <si>
     <t>RTM</t>
@@ -259,6 +259,9 @@
   </si>
   <si>
     <t>Effort Estimations</t>
+  </si>
+  <si>
+    <t>Github Repository</t>
   </si>
   <si>
     <t>Sequence Diagram</t>
@@ -2704,74 +2707,73 @@
       <c r="AA56" s="18"/>
       <c r="AB56" s="18"/>
     </row>
-    <row r="57">
-      <c r="C57" s="12"/>
-      <c r="D57" s="13"/>
-      <c r="E57" s="12"/>
-      <c r="F57" s="13"/>
-      <c r="G57" s="13"/>
-      <c r="H57" s="10"/>
-      <c r="I57" s="13"/>
-      <c r="J57" s="13"/>
-      <c r="K57" s="13"/>
-      <c r="L57" s="13"/>
-      <c r="M57" s="13"/>
-      <c r="N57" s="13"/>
-      <c r="O57" s="13"/>
-      <c r="P57" s="13"/>
-      <c r="Q57" s="13"/>
-      <c r="R57" s="13"/>
-      <c r="S57" s="13"/>
-      <c r="T57" s="13"/>
-      <c r="U57" s="13"/>
-      <c r="V57" s="13"/>
-      <c r="W57" s="13"/>
-      <c r="X57" s="13"/>
-      <c r="Y57" s="13"/>
-      <c r="Z57" s="13"/>
-      <c r="AA57" s="13"/>
-      <c r="AB57" s="13"/>
-    </row>
-    <row r="58" ht="43.5" customHeight="1">
-      <c r="C58" s="4" t="s">
+    <row r="57" ht="33.0" customHeight="1">
+      <c r="D57" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="D58" s="8" t="s">
+      <c r="F57" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G57" s="17">
+        <v>3.0</v>
+      </c>
+      <c r="H57" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I57" s="18"/>
+      <c r="J57" s="18"/>
+      <c r="K57" s="18"/>
+      <c r="L57" s="18"/>
+      <c r="M57" s="18"/>
+      <c r="N57" s="18"/>
+      <c r="O57" s="18"/>
+      <c r="P57" s="18"/>
+      <c r="Q57" s="18"/>
+      <c r="R57" s="18"/>
+      <c r="S57" s="18"/>
+      <c r="T57" s="18"/>
+      <c r="U57" s="18"/>
+      <c r="V57" s="18"/>
+      <c r="W57" s="18"/>
+      <c r="X57" s="18"/>
+      <c r="Y57" s="18"/>
+      <c r="Z57" s="18"/>
+      <c r="AA57" s="18"/>
+      <c r="AB57" s="18"/>
+    </row>
+    <row r="58">
+      <c r="C58" s="12"/>
+      <c r="D58" s="13"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="13"/>
+      <c r="G58" s="13"/>
+      <c r="H58" s="10"/>
+      <c r="I58" s="13"/>
+      <c r="J58" s="13"/>
+      <c r="K58" s="13"/>
+      <c r="L58" s="13"/>
+      <c r="M58" s="13"/>
+      <c r="N58" s="13"/>
+      <c r="O58" s="13"/>
+      <c r="P58" s="13"/>
+      <c r="Q58" s="13"/>
+      <c r="R58" s="13"/>
+      <c r="S58" s="13"/>
+      <c r="T58" s="13"/>
+      <c r="U58" s="13"/>
+      <c r="V58" s="13"/>
+      <c r="W58" s="13"/>
+      <c r="X58" s="13"/>
+      <c r="Y58" s="13"/>
+      <c r="Z58" s="13"/>
+      <c r="AA58" s="13"/>
+      <c r="AB58" s="13"/>
+    </row>
+    <row r="59" ht="43.5" customHeight="1">
+      <c r="C59" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="E58" s="4"/>
-      <c r="F58" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G58" s="5">
-        <v>3.0</v>
-      </c>
-      <c r="H58" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I58" s="6"/>
-      <c r="J58" s="6"/>
-      <c r="K58" s="6"/>
-      <c r="L58" s="6"/>
-      <c r="M58" s="6"/>
-      <c r="N58" s="6"/>
-      <c r="O58" s="6"/>
-      <c r="P58" s="6"/>
-      <c r="Q58" s="6"/>
-      <c r="R58" s="6"/>
-      <c r="S58" s="6"/>
-      <c r="T58" s="6"/>
-      <c r="U58" s="6"/>
-      <c r="V58" s="6"/>
-      <c r="W58" s="6"/>
-      <c r="X58" s="6"/>
-      <c r="Y58" s="6"/>
-      <c r="Z58" s="6"/>
-      <c r="AA58" s="6"/>
-      <c r="AB58" s="6"/>
-    </row>
-    <row r="59" ht="39.0" customHeight="1">
-      <c r="D59" s="19" t="s">
+      <c r="D59" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E59" s="4"/>
@@ -2805,17 +2807,16 @@
       <c r="AA59" s="6"/>
       <c r="AB59" s="6"/>
     </row>
-    <row r="60" ht="42.75" customHeight="1">
-      <c r="C60" s="4"/>
+    <row r="60" ht="39.0" customHeight="1">
       <c r="D60" s="19" t="s">
         <v>85</v>
       </c>
       <c r="E60" s="4"/>
       <c r="F60" s="5" t="s">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="G60" s="5">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="H60" s="5" t="s">
         <v>15</v>
@@ -2841,8 +2842,7 @@
       <c r="AA60" s="6"/>
       <c r="AB60" s="6"/>
     </row>
-    <row r="61" ht="45.0" customHeight="1">
-      <c r="C61" s="4"/>
+    <row r="61" ht="42.75" customHeight="1">
       <c r="D61" s="19" t="s">
         <v>86</v>
       </c>
@@ -2878,7 +2878,6 @@
       <c r="AB61" s="6"/>
     </row>
     <row r="62" ht="45.0" customHeight="1">
-      <c r="C62" s="4"/>
       <c r="D62" s="19" t="s">
         <v>87</v>
       </c>
@@ -2913,37 +2912,42 @@
       <c r="AA62" s="6"/>
       <c r="AB62" s="6"/>
     </row>
-    <row r="63">
-      <c r="C63" s="12"/>
-      <c r="D63" s="13"/>
-      <c r="E63" s="12"/>
-      <c r="F63" s="13"/>
-      <c r="G63" s="13"/>
-      <c r="H63" s="10"/>
-      <c r="I63" s="13"/>
-      <c r="J63" s="13"/>
-      <c r="K63" s="13"/>
-      <c r="L63" s="13"/>
-      <c r="M63" s="13"/>
-      <c r="N63" s="13"/>
-      <c r="O63" s="13"/>
-      <c r="P63" s="13"/>
-      <c r="Q63" s="13"/>
-      <c r="R63" s="13"/>
-      <c r="S63" s="13"/>
-      <c r="T63" s="13"/>
-      <c r="U63" s="13"/>
-      <c r="V63" s="13"/>
-      <c r="W63" s="13"/>
-      <c r="X63" s="13"/>
-      <c r="Y63" s="13"/>
-      <c r="Z63" s="13"/>
-      <c r="AA63" s="13"/>
-      <c r="AB63" s="13"/>
+    <row r="63" ht="45.0" customHeight="1">
+      <c r="D63" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="E63" s="4"/>
+      <c r="F63" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G63" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="H63" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I63" s="6"/>
+      <c r="J63" s="6"/>
+      <c r="K63" s="6"/>
+      <c r="L63" s="6"/>
+      <c r="M63" s="6"/>
+      <c r="N63" s="6"/>
+      <c r="O63" s="6"/>
+      <c r="P63" s="6"/>
+      <c r="Q63" s="6"/>
+      <c r="R63" s="6"/>
+      <c r="S63" s="6"/>
+      <c r="T63" s="6"/>
+      <c r="U63" s="6"/>
+      <c r="V63" s="6"/>
+      <c r="W63" s="6"/>
+      <c r="X63" s="6"/>
+      <c r="Y63" s="6"/>
+      <c r="Z63" s="6"/>
+      <c r="AA63" s="6"/>
+      <c r="AB63" s="6"/>
     </row>
     <row r="64">
-      <c r="A64" s="12"/>
-      <c r="B64" s="12"/>
       <c r="C64" s="12"/>
       <c r="D64" s="13"/>
       <c r="E64" s="12"/>
@@ -32369,9 +32373,9 @@
     <mergeCell ref="C26:C30"/>
     <mergeCell ref="C45:C52"/>
     <mergeCell ref="E45:E52"/>
-    <mergeCell ref="C54:C56"/>
-    <mergeCell ref="E54:E56"/>
     <mergeCell ref="C32:C43"/>
+    <mergeCell ref="C54:C57"/>
+    <mergeCell ref="E54:E57"/>
     <mergeCell ref="E2:E7"/>
     <mergeCell ref="E9:E12"/>
     <mergeCell ref="E14:E18"/>
@@ -32386,7 +32390,7 @@
     <mergeCell ref="C2:C7"/>
     <mergeCell ref="C65:C70"/>
     <mergeCell ref="C72:C77"/>
-    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="C59:C63"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -32414,16 +32418,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
@@ -32448,7 +32452,7 @@
     </row>
     <row r="2" ht="36.0" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>12</v>
@@ -32682,7 +32686,7 @@
     </row>
     <row r="9" ht="33.75" customHeight="1">
       <c r="A9" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B9" s="20" t="s">
         <v>12</v>
@@ -32916,7 +32920,7 @@
     </row>
     <row r="16" ht="35.25" customHeight="1">
       <c r="A16" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B16" s="16" t="s">
         <v>12</v>
@@ -33030,7 +33034,7 @@
         <v>10.0</v>
       </c>
       <c r="E19" s="26">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="F19" s="25"/>
       <c r="G19" s="25"/>
@@ -33150,7 +33154,7 @@
     </row>
     <row r="23" ht="34.5" customHeight="1">
       <c r="A23" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B23" s="16" t="s">
         <v>12</v>
@@ -33348,7 +33352,7 @@
     </row>
     <row r="30" ht="37.5" customHeight="1">
       <c r="A30" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B30" s="16" t="s">
         <v>12</v>
@@ -33546,7 +33550,7 @@
     </row>
     <row r="37" ht="36.0" customHeight="1">
       <c r="A37" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B37" s="16" t="s">
         <v>12</v>

--- a/Design/QA_OnineClothes_EffortEstimation.xlsx
+++ b/Design/QA_OnineClothes_EffortEstimation.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="101">
   <si>
     <t>Phase</t>
   </si>
@@ -129,9 +129,6 @@
     <t>Add Attributes</t>
   </si>
   <si>
-    <t>6 H/Week</t>
-  </si>
-  <si>
     <t>Refine the Diagram</t>
   </si>
   <si>
@@ -145,6 +142,9 @@
   </si>
   <si>
     <t>Merna Hesham</t>
+  </si>
+  <si>
+    <t>6 H/Week</t>
   </si>
   <si>
     <t>Research and Analysis</t>
@@ -216,6 +216,15 @@
     <t>2 H/Week</t>
   </si>
   <si>
+    <t>Create Admin Sign out Flowchart</t>
+  </si>
+  <si>
+    <t>Create Client Sign out Flowchart</t>
+  </si>
+  <si>
+    <t>Create Supplier Sign out Flowchart</t>
+  </si>
+  <si>
     <t>Class Diagram + Interfaces</t>
   </si>
   <si>
@@ -223,9 +232,6 @@
   </si>
   <si>
     <t>Samar Salah</t>
-  </si>
-  <si>
-    <t>7 H/Week</t>
   </si>
   <si>
     <t>List Attributes and Methods</t>
@@ -1053,7 +1059,7 @@
         <v>1.0</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
@@ -1087,7 +1093,7 @@
         <v>45296.0</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
@@ -1121,7 +1127,7 @@
         <v>4.0</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
@@ -1155,7 +1161,7 @@
         <v>4.0</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
@@ -1285,7 +1291,7 @@
         <v>37</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G16" s="5">
         <v>4.0</v>
@@ -1316,10 +1322,10 @@
     </row>
     <row r="17" ht="37.5" customHeight="1">
       <c r="D17" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="G17" s="5">
         <v>4.0</v>
@@ -1350,7 +1356,7 @@
     </row>
     <row r="18" ht="36.0" customHeight="1">
       <c r="D18" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>23</v>
@@ -1412,16 +1418,16 @@
     </row>
     <row r="20" ht="25.5" customHeight="1">
       <c r="C20" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="E20" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="F20" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>38</v>
       </c>
       <c r="G20" s="5">
         <v>1.0</v>
@@ -1455,7 +1461,7 @@
         <v>44</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G21" s="5">
         <v>3.0</v>
@@ -1489,7 +1495,7 @@
         <v>45</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G22" s="5">
         <v>4.0</v>
@@ -1622,7 +1628,7 @@
         <v>49</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F26" s="17" t="s">
         <v>13</v>
@@ -1829,13 +1835,13 @@
         <v>56</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G32" s="5">
         <v>3.0</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I32" s="6"/>
       <c r="J32" s="6"/>
@@ -1866,7 +1872,7 @@
         <v>12</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G33" s="5">
         <v>3.0</v>
@@ -1900,10 +1906,10 @@
         <v>58</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G34" s="5">
         <v>3.0</v>
@@ -1940,13 +1946,13 @@
         <v>28</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G35" s="5">
         <v>3.0</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I35" s="6"/>
       <c r="J35" s="6"/>
@@ -1977,13 +1983,13 @@
         <v>28</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G36" s="5">
         <v>3.0</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I36" s="6"/>
       <c r="J36" s="6"/>
@@ -2014,13 +2020,13 @@
         <v>56</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G37" s="5">
         <v>3.0</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I37" s="6"/>
       <c r="J37" s="6"/>
@@ -2051,7 +2057,7 @@
         <v>63</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G38" s="5">
         <v>3.0</v>
@@ -2088,7 +2094,7 @@
         <v>63</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G39" s="5">
         <v>3.0</v>
@@ -2125,7 +2131,7 @@
         <v>63</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G40" s="5">
         <v>3.0</v>
@@ -2159,7 +2165,7 @@
         <v>65</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F41" s="5" t="s">
         <v>66</v>
@@ -2196,7 +2202,7 @@
         <v>65</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F42" s="5" t="s">
         <v>66</v>
@@ -2233,7 +2239,7 @@
         <v>65</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F43" s="5" t="s">
         <v>66</v>
@@ -2265,52 +2271,60 @@
       <c r="AA43" s="6"/>
       <c r="AB43" s="6"/>
     </row>
-    <row r="44">
-      <c r="C44" s="12"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="13"/>
-      <c r="G44" s="13"/>
-      <c r="H44" s="10"/>
-      <c r="I44" s="13"/>
-      <c r="J44" s="13"/>
-      <c r="K44" s="13"/>
-      <c r="L44" s="13"/>
-      <c r="M44" s="13"/>
-      <c r="N44" s="13"/>
-      <c r="O44" s="13"/>
-      <c r="P44" s="13"/>
-      <c r="Q44" s="13"/>
-      <c r="R44" s="13"/>
-      <c r="S44" s="13"/>
-      <c r="T44" s="13"/>
-      <c r="U44" s="13"/>
-      <c r="V44" s="13"/>
-      <c r="W44" s="13"/>
-      <c r="X44" s="13"/>
-      <c r="Y44" s="13"/>
-      <c r="Z44" s="13"/>
-      <c r="AA44" s="13"/>
-      <c r="AB44" s="13"/>
-    </row>
-    <row r="45" ht="25.5" customHeight="1">
-      <c r="C45" s="4" t="s">
+    <row r="44" ht="32.25" customHeight="1">
+      <c r="C44" s="4"/>
+      <c r="D44" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="D45" s="8" t="s">
+      <c r="E44" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G44" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="6"/>
+      <c r="L44" s="6"/>
+      <c r="M44" s="6"/>
+      <c r="N44" s="6"/>
+      <c r="O44" s="6"/>
+      <c r="P44" s="6"/>
+      <c r="Q44" s="6"/>
+      <c r="R44" s="6"/>
+      <c r="S44" s="6"/>
+      <c r="T44" s="6"/>
+      <c r="U44" s="6"/>
+      <c r="V44" s="6"/>
+      <c r="W44" s="6"/>
+      <c r="X44" s="6"/>
+      <c r="Y44" s="6"/>
+      <c r="Z44" s="6"/>
+      <c r="AA44" s="6"/>
+      <c r="AB44" s="6"/>
+    </row>
+    <row r="45" ht="32.25" customHeight="1">
+      <c r="C45" s="4"/>
+      <c r="D45" s="19" t="s">
         <v>68</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G45" s="5">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I45" s="6"/>
       <c r="J45" s="6"/>
@@ -2333,18 +2347,22 @@
       <c r="AA45" s="6"/>
       <c r="AB45" s="6"/>
     </row>
-    <row r="46" ht="39.0" customHeight="1">
-      <c r="D46" s="8" t="s">
-        <v>71</v>
+    <row r="46" ht="32.25" customHeight="1">
+      <c r="C46" s="4"/>
+      <c r="D46" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G46" s="5">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I46" s="6"/>
       <c r="J46" s="6"/>
@@ -2367,52 +2385,52 @@
       <c r="AA46" s="6"/>
       <c r="AB46" s="6"/>
     </row>
-    <row r="47" ht="33.0" customHeight="1">
-      <c r="D47" s="8" t="s">
+    <row r="47">
+      <c r="C47" s="12"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="13"/>
+      <c r="J47" s="13"/>
+      <c r="K47" s="13"/>
+      <c r="L47" s="13"/>
+      <c r="M47" s="13"/>
+      <c r="N47" s="13"/>
+      <c r="O47" s="13"/>
+      <c r="P47" s="13"/>
+      <c r="Q47" s="13"/>
+      <c r="R47" s="13"/>
+      <c r="S47" s="13"/>
+      <c r="T47" s="13"/>
+      <c r="U47" s="13"/>
+      <c r="V47" s="13"/>
+      <c r="W47" s="13"/>
+      <c r="X47" s="13"/>
+      <c r="Y47" s="13"/>
+      <c r="Z47" s="13"/>
+      <c r="AA47" s="13"/>
+      <c r="AB47" s="13"/>
+    </row>
+    <row r="48" ht="25.5" customHeight="1">
+      <c r="C48" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E48" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F47" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="G47" s="5">
-        <v>3.0</v>
-      </c>
-      <c r="H47" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I47" s="6"/>
-      <c r="J47" s="6"/>
-      <c r="K47" s="6"/>
-      <c r="L47" s="6"/>
-      <c r="M47" s="6"/>
-      <c r="N47" s="6"/>
-      <c r="O47" s="6"/>
-      <c r="P47" s="6"/>
-      <c r="Q47" s="6"/>
-      <c r="R47" s="6"/>
-      <c r="S47" s="6"/>
-      <c r="T47" s="6"/>
-      <c r="U47" s="6"/>
-      <c r="V47" s="6"/>
-      <c r="W47" s="6"/>
-      <c r="X47" s="6"/>
-      <c r="Y47" s="6"/>
-      <c r="Z47" s="6"/>
-      <c r="AA47" s="6"/>
-      <c r="AB47" s="6"/>
-    </row>
-    <row r="48" ht="37.5" customHeight="1">
-      <c r="D48" s="8" t="s">
-        <v>73</v>
-      </c>
       <c r="F48" s="5" t="s">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="G48" s="5">
         <v>3.0</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I48" s="6"/>
       <c r="J48" s="6"/>
@@ -2435,18 +2453,18 @@
       <c r="AA48" s="6"/>
       <c r="AB48" s="6"/>
     </row>
-    <row r="49" ht="36.0" customHeight="1">
+    <row r="49" ht="39.0" customHeight="1">
       <c r="D49" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="G49" s="5">
         <v>3.0</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I49" s="6"/>
       <c r="J49" s="6"/>
@@ -2469,18 +2487,18 @@
       <c r="AA49" s="6"/>
       <c r="AB49" s="6"/>
     </row>
-    <row r="50" ht="32.25" customHeight="1">
+    <row r="50" ht="33.0" customHeight="1">
       <c r="D50" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="G50" s="5">
         <v>3.0</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I50" s="6"/>
       <c r="J50" s="6"/>
@@ -2503,18 +2521,18 @@
       <c r="AA50" s="6"/>
       <c r="AB50" s="6"/>
     </row>
-    <row r="51" ht="32.25" customHeight="1">
+    <row r="51" ht="37.5" customHeight="1">
       <c r="D51" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="G51" s="5">
         <v>3.0</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I51" s="6"/>
       <c r="J51" s="6"/>
@@ -2537,18 +2555,21 @@
       <c r="AA51" s="6"/>
       <c r="AB51" s="6"/>
     </row>
-    <row r="52" ht="32.25" customHeight="1">
+    <row r="52" ht="36.0" customHeight="1">
       <c r="D52" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="G52" s="5">
         <v>3.0</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I52" s="6"/>
       <c r="J52" s="6"/>
@@ -2571,151 +2592,151 @@
       <c r="AA52" s="6"/>
       <c r="AB52" s="6"/>
     </row>
-    <row r="53">
-      <c r="C53" s="13"/>
-      <c r="D53" s="13"/>
-      <c r="E53" s="13"/>
-      <c r="F53" s="13"/>
-      <c r="G53" s="13"/>
-      <c r="H53" s="13"/>
-      <c r="I53" s="13"/>
-      <c r="J53" s="13"/>
-      <c r="K53" s="13"/>
-      <c r="L53" s="13"/>
-      <c r="M53" s="13"/>
-      <c r="N53" s="13"/>
-      <c r="O53" s="13"/>
-      <c r="P53" s="13"/>
-      <c r="Q53" s="13"/>
-      <c r="R53" s="13"/>
-      <c r="S53" s="13"/>
-      <c r="T53" s="13"/>
-      <c r="U53" s="13"/>
-      <c r="V53" s="13"/>
-      <c r="W53" s="13"/>
-      <c r="X53" s="13"/>
-      <c r="Y53" s="13"/>
-      <c r="Z53" s="13"/>
-      <c r="AA53" s="13"/>
-      <c r="AB53" s="13"/>
-    </row>
-    <row r="54" ht="39.75" customHeight="1">
-      <c r="C54" s="14" t="s">
+    <row r="53" ht="32.25" customHeight="1">
+      <c r="D53" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G53" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="H53" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I53" s="6"/>
+      <c r="J53" s="6"/>
+      <c r="K53" s="6"/>
+      <c r="L53" s="6"/>
+      <c r="M53" s="6"/>
+      <c r="N53" s="6"/>
+      <c r="O53" s="6"/>
+      <c r="P53" s="6"/>
+      <c r="Q53" s="6"/>
+      <c r="R53" s="6"/>
+      <c r="S53" s="6"/>
+      <c r="T53" s="6"/>
+      <c r="U53" s="6"/>
+      <c r="V53" s="6"/>
+      <c r="W53" s="6"/>
+      <c r="X53" s="6"/>
+      <c r="Y53" s="6"/>
+      <c r="Z53" s="6"/>
+      <c r="AA53" s="6"/>
+      <c r="AB53" s="6"/>
+    </row>
+    <row r="54" ht="32.25" customHeight="1">
+      <c r="D54" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="D54" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="E54" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="F54" s="17" t="s">
+      <c r="F54" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G54" s="17">
-        <v>2.0</v>
+      <c r="G54" s="5">
+        <v>3.0</v>
       </c>
       <c r="H54" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I54" s="18"/>
-      <c r="J54" s="18"/>
-      <c r="K54" s="18"/>
-      <c r="L54" s="18"/>
-      <c r="M54" s="18"/>
-      <c r="N54" s="18"/>
-      <c r="O54" s="18"/>
-      <c r="P54" s="18"/>
-      <c r="Q54" s="18"/>
-      <c r="R54" s="18"/>
-      <c r="S54" s="18"/>
-      <c r="T54" s="18"/>
-      <c r="U54" s="18"/>
-      <c r="V54" s="18"/>
-      <c r="W54" s="18"/>
-      <c r="X54" s="18"/>
-      <c r="Y54" s="18"/>
-      <c r="Z54" s="18"/>
-      <c r="AA54" s="18"/>
-      <c r="AB54" s="18"/>
-    </row>
-    <row r="55" ht="39.0" customHeight="1">
-      <c r="D55" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="F55" s="17" t="s">
+      <c r="I54" s="6"/>
+      <c r="J54" s="6"/>
+      <c r="K54" s="6"/>
+      <c r="L54" s="6"/>
+      <c r="M54" s="6"/>
+      <c r="N54" s="6"/>
+      <c r="O54" s="6"/>
+      <c r="P54" s="6"/>
+      <c r="Q54" s="6"/>
+      <c r="R54" s="6"/>
+      <c r="S54" s="6"/>
+      <c r="T54" s="6"/>
+      <c r="U54" s="6"/>
+      <c r="V54" s="6"/>
+      <c r="W54" s="6"/>
+      <c r="X54" s="6"/>
+      <c r="Y54" s="6"/>
+      <c r="Z54" s="6"/>
+      <c r="AA54" s="6"/>
+      <c r="AB54" s="6"/>
+    </row>
+    <row r="55" ht="32.25" customHeight="1">
+      <c r="D55" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F55" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G55" s="17">
-        <v>2.0</v>
+      <c r="G55" s="5">
+        <v>3.0</v>
       </c>
       <c r="H55" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I55" s="18"/>
-      <c r="J55" s="18"/>
-      <c r="K55" s="18"/>
-      <c r="L55" s="18"/>
-      <c r="M55" s="18"/>
-      <c r="N55" s="18"/>
-      <c r="O55" s="18"/>
-      <c r="P55" s="18"/>
-      <c r="Q55" s="18"/>
-      <c r="R55" s="18"/>
-      <c r="S55" s="18"/>
-      <c r="T55" s="18"/>
-      <c r="U55" s="18"/>
-      <c r="V55" s="18"/>
-      <c r="W55" s="18"/>
-      <c r="X55" s="18"/>
-      <c r="Y55" s="18"/>
-      <c r="Z55" s="18"/>
-      <c r="AA55" s="18"/>
-      <c r="AB55" s="18"/>
-    </row>
-    <row r="56" ht="33.0" customHeight="1">
-      <c r="D56" s="15" t="s">
+      <c r="I55" s="6"/>
+      <c r="J55" s="6"/>
+      <c r="K55" s="6"/>
+      <c r="L55" s="6"/>
+      <c r="M55" s="6"/>
+      <c r="N55" s="6"/>
+      <c r="O55" s="6"/>
+      <c r="P55" s="6"/>
+      <c r="Q55" s="6"/>
+      <c r="R55" s="6"/>
+      <c r="S55" s="6"/>
+      <c r="T55" s="6"/>
+      <c r="U55" s="6"/>
+      <c r="V55" s="6"/>
+      <c r="W55" s="6"/>
+      <c r="X55" s="6"/>
+      <c r="Y55" s="6"/>
+      <c r="Z55" s="6"/>
+      <c r="AA55" s="6"/>
+      <c r="AB55" s="6"/>
+    </row>
+    <row r="56">
+      <c r="C56" s="13"/>
+      <c r="D56" s="13"/>
+      <c r="E56" s="13"/>
+      <c r="F56" s="13"/>
+      <c r="G56" s="13"/>
+      <c r="H56" s="13"/>
+      <c r="I56" s="13"/>
+      <c r="J56" s="13"/>
+      <c r="K56" s="13"/>
+      <c r="L56" s="13"/>
+      <c r="M56" s="13"/>
+      <c r="N56" s="13"/>
+      <c r="O56" s="13"/>
+      <c r="P56" s="13"/>
+      <c r="Q56" s="13"/>
+      <c r="R56" s="13"/>
+      <c r="S56" s="13"/>
+      <c r="T56" s="13"/>
+      <c r="U56" s="13"/>
+      <c r="V56" s="13"/>
+      <c r="W56" s="13"/>
+      <c r="X56" s="13"/>
+      <c r="Y56" s="13"/>
+      <c r="Z56" s="13"/>
+      <c r="AA56" s="13"/>
+      <c r="AB56" s="13"/>
+    </row>
+    <row r="57" ht="39.75" customHeight="1">
+      <c r="C57" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="D57" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="F56" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G56" s="17">
-        <v>2.0</v>
-      </c>
-      <c r="H56" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I56" s="18"/>
-      <c r="J56" s="18"/>
-      <c r="K56" s="18"/>
-      <c r="L56" s="18"/>
-      <c r="M56" s="18"/>
-      <c r="N56" s="18"/>
-      <c r="O56" s="18"/>
-      <c r="P56" s="18"/>
-      <c r="Q56" s="18"/>
-      <c r="R56" s="18"/>
-      <c r="S56" s="18"/>
-      <c r="T56" s="18"/>
-      <c r="U56" s="18"/>
-      <c r="V56" s="18"/>
-      <c r="W56" s="18"/>
-      <c r="X56" s="18"/>
-      <c r="Y56" s="18"/>
-      <c r="Z56" s="18"/>
-      <c r="AA56" s="18"/>
-      <c r="AB56" s="18"/>
-    </row>
-    <row r="57" ht="33.0" customHeight="1">
-      <c r="D57" s="15" t="s">
-        <v>82</v>
+      <c r="E57" s="16" t="s">
+        <v>42</v>
       </c>
       <c r="F57" s="17" t="s">
         <v>13</v>
       </c>
       <c r="G57" s="17">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="H57" s="5" t="s">
         <v>14</v>
@@ -2741,155 +2762,154 @@
       <c r="AA57" s="18"/>
       <c r="AB57" s="18"/>
     </row>
-    <row r="58">
-      <c r="C58" s="12"/>
-      <c r="D58" s="13"/>
-      <c r="E58" s="12"/>
-      <c r="F58" s="13"/>
-      <c r="G58" s="13"/>
-      <c r="H58" s="10"/>
-      <c r="I58" s="13"/>
-      <c r="J58" s="13"/>
-      <c r="K58" s="13"/>
-      <c r="L58" s="13"/>
-      <c r="M58" s="13"/>
-      <c r="N58" s="13"/>
-      <c r="O58" s="13"/>
-      <c r="P58" s="13"/>
-      <c r="Q58" s="13"/>
-      <c r="R58" s="13"/>
-      <c r="S58" s="13"/>
-      <c r="T58" s="13"/>
-      <c r="U58" s="13"/>
-      <c r="V58" s="13"/>
-      <c r="W58" s="13"/>
-      <c r="X58" s="13"/>
-      <c r="Y58" s="13"/>
-      <c r="Z58" s="13"/>
-      <c r="AA58" s="13"/>
-      <c r="AB58" s="13"/>
-    </row>
-    <row r="59" ht="43.5" customHeight="1">
-      <c r="C59" s="4" t="s">
+    <row r="58" ht="39.0" customHeight="1">
+      <c r="D58" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="F58" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G58" s="17">
+        <v>2.0</v>
+      </c>
+      <c r="H58" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I58" s="18"/>
+      <c r="J58" s="18"/>
+      <c r="K58" s="18"/>
+      <c r="L58" s="18"/>
+      <c r="M58" s="18"/>
+      <c r="N58" s="18"/>
+      <c r="O58" s="18"/>
+      <c r="P58" s="18"/>
+      <c r="Q58" s="18"/>
+      <c r="R58" s="18"/>
+      <c r="S58" s="18"/>
+      <c r="T58" s="18"/>
+      <c r="U58" s="18"/>
+      <c r="V58" s="18"/>
+      <c r="W58" s="18"/>
+      <c r="X58" s="18"/>
+      <c r="Y58" s="18"/>
+      <c r="Z58" s="18"/>
+      <c r="AA58" s="18"/>
+      <c r="AB58" s="18"/>
+    </row>
+    <row r="59" ht="33.0" customHeight="1">
+      <c r="D59" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="D59" s="8" t="s">
+      <c r="F59" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G59" s="17">
+        <v>2.0</v>
+      </c>
+      <c r="H59" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I59" s="18"/>
+      <c r="J59" s="18"/>
+      <c r="K59" s="18"/>
+      <c r="L59" s="18"/>
+      <c r="M59" s="18"/>
+      <c r="N59" s="18"/>
+      <c r="O59" s="18"/>
+      <c r="P59" s="18"/>
+      <c r="Q59" s="18"/>
+      <c r="R59" s="18"/>
+      <c r="S59" s="18"/>
+      <c r="T59" s="18"/>
+      <c r="U59" s="18"/>
+      <c r="V59" s="18"/>
+      <c r="W59" s="18"/>
+      <c r="X59" s="18"/>
+      <c r="Y59" s="18"/>
+      <c r="Z59" s="18"/>
+      <c r="AA59" s="18"/>
+      <c r="AB59" s="18"/>
+    </row>
+    <row r="60" ht="33.0" customHeight="1">
+      <c r="D60" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="E59" s="4"/>
-      <c r="F59" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G59" s="5">
+      <c r="F60" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G60" s="17">
         <v>3.0</v>
       </c>
-      <c r="H59" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I59" s="6"/>
-      <c r="J59" s="6"/>
-      <c r="K59" s="6"/>
-      <c r="L59" s="6"/>
-      <c r="M59" s="6"/>
-      <c r="N59" s="6"/>
-      <c r="O59" s="6"/>
-      <c r="P59" s="6"/>
-      <c r="Q59" s="6"/>
-      <c r="R59" s="6"/>
-      <c r="S59" s="6"/>
-      <c r="T59" s="6"/>
-      <c r="U59" s="6"/>
-      <c r="V59" s="6"/>
-      <c r="W59" s="6"/>
-      <c r="X59" s="6"/>
-      <c r="Y59" s="6"/>
-      <c r="Z59" s="6"/>
-      <c r="AA59" s="6"/>
-      <c r="AB59" s="6"/>
-    </row>
-    <row r="60" ht="39.0" customHeight="1">
-      <c r="D60" s="19" t="s">
+      <c r="H60" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I60" s="18"/>
+      <c r="J60" s="18"/>
+      <c r="K60" s="18"/>
+      <c r="L60" s="18"/>
+      <c r="M60" s="18"/>
+      <c r="N60" s="18"/>
+      <c r="O60" s="18"/>
+      <c r="P60" s="18"/>
+      <c r="Q60" s="18"/>
+      <c r="R60" s="18"/>
+      <c r="S60" s="18"/>
+      <c r="T60" s="18"/>
+      <c r="U60" s="18"/>
+      <c r="V60" s="18"/>
+      <c r="W60" s="18"/>
+      <c r="X60" s="18"/>
+      <c r="Y60" s="18"/>
+      <c r="Z60" s="18"/>
+      <c r="AA60" s="18"/>
+      <c r="AB60" s="18"/>
+    </row>
+    <row r="61">
+      <c r="C61" s="12"/>
+      <c r="D61" s="13"/>
+      <c r="E61" s="12"/>
+      <c r="F61" s="13"/>
+      <c r="G61" s="13"/>
+      <c r="H61" s="10"/>
+      <c r="I61" s="13"/>
+      <c r="J61" s="13"/>
+      <c r="K61" s="13"/>
+      <c r="L61" s="13"/>
+      <c r="M61" s="13"/>
+      <c r="N61" s="13"/>
+      <c r="O61" s="13"/>
+      <c r="P61" s="13"/>
+      <c r="Q61" s="13"/>
+      <c r="R61" s="13"/>
+      <c r="S61" s="13"/>
+      <c r="T61" s="13"/>
+      <c r="U61" s="13"/>
+      <c r="V61" s="13"/>
+      <c r="W61" s="13"/>
+      <c r="X61" s="13"/>
+      <c r="Y61" s="13"/>
+      <c r="Z61" s="13"/>
+      <c r="AA61" s="13"/>
+      <c r="AB61" s="13"/>
+    </row>
+    <row r="62" ht="43.5" customHeight="1">
+      <c r="C62" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="E60" s="4"/>
-      <c r="F60" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G60" s="5">
+      <c r="D62" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G62" s="5">
         <v>3.0</v>
       </c>
-      <c r="H60" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I60" s="6"/>
-      <c r="J60" s="6"/>
-      <c r="K60" s="6"/>
-      <c r="L60" s="6"/>
-      <c r="M60" s="6"/>
-      <c r="N60" s="6"/>
-      <c r="O60" s="6"/>
-      <c r="P60" s="6"/>
-      <c r="Q60" s="6"/>
-      <c r="R60" s="6"/>
-      <c r="S60" s="6"/>
-      <c r="T60" s="6"/>
-      <c r="U60" s="6"/>
-      <c r="V60" s="6"/>
-      <c r="W60" s="6"/>
-      <c r="X60" s="6"/>
-      <c r="Y60" s="6"/>
-      <c r="Z60" s="6"/>
-      <c r="AA60" s="6"/>
-      <c r="AB60" s="6"/>
-    </row>
-    <row r="61" ht="42.75" customHeight="1">
-      <c r="D61" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="E61" s="4"/>
-      <c r="F61" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="G61" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="H61" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I61" s="6"/>
-      <c r="J61" s="6"/>
-      <c r="K61" s="6"/>
-      <c r="L61" s="6"/>
-      <c r="M61" s="6"/>
-      <c r="N61" s="6"/>
-      <c r="O61" s="6"/>
-      <c r="P61" s="6"/>
-      <c r="Q61" s="6"/>
-      <c r="R61" s="6"/>
-      <c r="S61" s="6"/>
-      <c r="T61" s="6"/>
-      <c r="U61" s="6"/>
-      <c r="V61" s="6"/>
-      <c r="W61" s="6"/>
-      <c r="X61" s="6"/>
-      <c r="Y61" s="6"/>
-      <c r="Z61" s="6"/>
-      <c r="AA61" s="6"/>
-      <c r="AB61" s="6"/>
-    </row>
-    <row r="62" ht="45.0" customHeight="1">
-      <c r="D62" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="E62" s="4"/>
-      <c r="F62" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="G62" s="5">
-        <v>1.0</v>
-      </c>
       <c r="H62" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I62" s="6"/>
       <c r="J62" s="6"/>
@@ -2912,19 +2932,21 @@
       <c r="AA62" s="6"/>
       <c r="AB62" s="6"/>
     </row>
-    <row r="63" ht="45.0" customHeight="1">
+    <row r="63" ht="39.0" customHeight="1">
       <c r="D63" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="E63" s="4"/>
+        <v>87</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="F63" s="5" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="G63" s="5">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I63" s="6"/>
       <c r="J63" s="6"/>
@@ -2947,125 +2969,149 @@
       <c r="AA63" s="6"/>
       <c r="AB63" s="6"/>
     </row>
-    <row r="64">
-      <c r="C64" s="12"/>
-      <c r="D64" s="13"/>
-      <c r="E64" s="12"/>
-      <c r="F64" s="13"/>
-      <c r="G64" s="13"/>
-      <c r="H64" s="10"/>
-      <c r="I64" s="13"/>
-      <c r="J64" s="13"/>
-      <c r="K64" s="13"/>
-      <c r="L64" s="13"/>
-      <c r="M64" s="13"/>
-      <c r="N64" s="13"/>
-      <c r="O64" s="13"/>
-      <c r="P64" s="13"/>
-      <c r="Q64" s="13"/>
-      <c r="R64" s="13"/>
-      <c r="S64" s="13"/>
-      <c r="T64" s="13"/>
-      <c r="U64" s="13"/>
-      <c r="V64" s="13"/>
-      <c r="W64" s="13"/>
-      <c r="X64" s="13"/>
-      <c r="Y64" s="13"/>
-      <c r="Z64" s="13"/>
-      <c r="AA64" s="13"/>
-      <c r="AB64" s="13"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="20"/>
-      <c r="B65" s="20"/>
-      <c r="C65" s="20"/>
-      <c r="D65" s="18"/>
-      <c r="E65" s="20"/>
-      <c r="F65" s="18"/>
-      <c r="G65" s="18"/>
-      <c r="H65" s="5"/>
-      <c r="I65" s="18"/>
-      <c r="J65" s="18"/>
-      <c r="K65" s="18"/>
-      <c r="L65" s="18"/>
-      <c r="M65" s="18"/>
-      <c r="N65" s="18"/>
-      <c r="O65" s="18"/>
-      <c r="P65" s="18"/>
-      <c r="Q65" s="18"/>
-      <c r="R65" s="18"/>
-      <c r="S65" s="18"/>
-      <c r="T65" s="18"/>
-      <c r="U65" s="18"/>
-      <c r="V65" s="18"/>
-      <c r="W65" s="18"/>
-      <c r="X65" s="18"/>
-      <c r="Y65" s="18"/>
-      <c r="Z65" s="18"/>
-      <c r="AA65" s="18"/>
-      <c r="AB65" s="18"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="20"/>
-      <c r="B66" s="20"/>
-      <c r="D66" s="18"/>
-      <c r="E66" s="20"/>
-      <c r="F66" s="18"/>
-      <c r="G66" s="18"/>
-      <c r="H66" s="5"/>
-      <c r="I66" s="18"/>
-      <c r="J66" s="18"/>
-      <c r="K66" s="18"/>
-      <c r="L66" s="18"/>
-      <c r="M66" s="18"/>
-      <c r="N66" s="18"/>
-      <c r="O66" s="18"/>
-      <c r="P66" s="18"/>
-      <c r="Q66" s="18"/>
-      <c r="R66" s="18"/>
-      <c r="S66" s="18"/>
-      <c r="T66" s="18"/>
-      <c r="U66" s="18"/>
-      <c r="V66" s="18"/>
-      <c r="W66" s="18"/>
-      <c r="X66" s="18"/>
-      <c r="Y66" s="18"/>
-      <c r="Z66" s="18"/>
-      <c r="AA66" s="18"/>
-      <c r="AB66" s="18"/>
+    <row r="64" ht="42.75" customHeight="1">
+      <c r="D64" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G64" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="H64" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I64" s="6"/>
+      <c r="J64" s="6"/>
+      <c r="K64" s="6"/>
+      <c r="L64" s="6"/>
+      <c r="M64" s="6"/>
+      <c r="N64" s="6"/>
+      <c r="O64" s="6"/>
+      <c r="P64" s="6"/>
+      <c r="Q64" s="6"/>
+      <c r="R64" s="6"/>
+      <c r="S64" s="6"/>
+      <c r="T64" s="6"/>
+      <c r="U64" s="6"/>
+      <c r="V64" s="6"/>
+      <c r="W64" s="6"/>
+      <c r="X64" s="6"/>
+      <c r="Y64" s="6"/>
+      <c r="Z64" s="6"/>
+      <c r="AA64" s="6"/>
+      <c r="AB64" s="6"/>
+    </row>
+    <row r="65" ht="45.0" customHeight="1">
+      <c r="D65" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G65" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="H65" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I65" s="6"/>
+      <c r="J65" s="6"/>
+      <c r="K65" s="6"/>
+      <c r="L65" s="6"/>
+      <c r="M65" s="6"/>
+      <c r="N65" s="6"/>
+      <c r="O65" s="6"/>
+      <c r="P65" s="6"/>
+      <c r="Q65" s="6"/>
+      <c r="R65" s="6"/>
+      <c r="S65" s="6"/>
+      <c r="T65" s="6"/>
+      <c r="U65" s="6"/>
+      <c r="V65" s="6"/>
+      <c r="W65" s="6"/>
+      <c r="X65" s="6"/>
+      <c r="Y65" s="6"/>
+      <c r="Z65" s="6"/>
+      <c r="AA65" s="6"/>
+      <c r="AB65" s="6"/>
+    </row>
+    <row r="66" ht="45.0" customHeight="1">
+      <c r="D66" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G66" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="H66" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I66" s="6"/>
+      <c r="J66" s="6"/>
+      <c r="K66" s="6"/>
+      <c r="L66" s="6"/>
+      <c r="M66" s="6"/>
+      <c r="N66" s="6"/>
+      <c r="O66" s="6"/>
+      <c r="P66" s="6"/>
+      <c r="Q66" s="6"/>
+      <c r="R66" s="6"/>
+      <c r="S66" s="6"/>
+      <c r="T66" s="6"/>
+      <c r="U66" s="6"/>
+      <c r="V66" s="6"/>
+      <c r="W66" s="6"/>
+      <c r="X66" s="6"/>
+      <c r="Y66" s="6"/>
+      <c r="Z66" s="6"/>
+      <c r="AA66" s="6"/>
+      <c r="AB66" s="6"/>
     </row>
     <row r="67">
-      <c r="A67" s="20"/>
-      <c r="B67" s="20"/>
-      <c r="D67" s="18"/>
-      <c r="E67" s="20"/>
-      <c r="F67" s="18"/>
-      <c r="G67" s="18"/>
-      <c r="H67" s="5"/>
-      <c r="I67" s="18"/>
-      <c r="J67" s="18"/>
-      <c r="K67" s="18"/>
-      <c r="L67" s="18"/>
-      <c r="M67" s="18"/>
-      <c r="N67" s="18"/>
-      <c r="O67" s="18"/>
-      <c r="P67" s="18"/>
-      <c r="Q67" s="18"/>
-      <c r="R67" s="18"/>
-      <c r="S67" s="18"/>
-      <c r="T67" s="18"/>
-      <c r="U67" s="18"/>
-      <c r="V67" s="18"/>
-      <c r="W67" s="18"/>
-      <c r="X67" s="18"/>
-      <c r="Y67" s="18"/>
-      <c r="Z67" s="18"/>
-      <c r="AA67" s="18"/>
-      <c r="AB67" s="18"/>
+      <c r="C67" s="12"/>
+      <c r="D67" s="13"/>
+      <c r="E67" s="12"/>
+      <c r="F67" s="13"/>
+      <c r="G67" s="13"/>
+      <c r="H67" s="10"/>
+      <c r="I67" s="13"/>
+      <c r="J67" s="13"/>
+      <c r="K67" s="13"/>
+      <c r="L67" s="13"/>
+      <c r="M67" s="13"/>
+      <c r="N67" s="13"/>
+      <c r="O67" s="13"/>
+      <c r="P67" s="13"/>
+      <c r="Q67" s="13"/>
+      <c r="R67" s="13"/>
+      <c r="S67" s="13"/>
+      <c r="T67" s="13"/>
+      <c r="U67" s="13"/>
+      <c r="V67" s="13"/>
+      <c r="W67" s="13"/>
+      <c r="X67" s="13"/>
+      <c r="Y67" s="13"/>
+      <c r="Z67" s="13"/>
+      <c r="AA67" s="13"/>
+      <c r="AB67" s="13"/>
     </row>
     <row r="68">
       <c r="A68" s="20"/>
       <c r="B68" s="20"/>
+      <c r="C68" s="20"/>
       <c r="D68" s="18"/>
       <c r="E68" s="20"/>
       <c r="F68" s="18"/>
@@ -3151,39 +3197,37 @@
       <c r="AB70" s="18"/>
     </row>
     <row r="71">
-      <c r="A71" s="12"/>
-      <c r="B71" s="12"/>
-      <c r="C71" s="12"/>
-      <c r="D71" s="13"/>
-      <c r="E71" s="12"/>
-      <c r="F71" s="13"/>
-      <c r="G71" s="13"/>
-      <c r="H71" s="10"/>
-      <c r="I71" s="13"/>
-      <c r="J71" s="13"/>
-      <c r="K71" s="13"/>
-      <c r="L71" s="13"/>
-      <c r="M71" s="13"/>
-      <c r="N71" s="13"/>
-      <c r="O71" s="13"/>
-      <c r="P71" s="13"/>
-      <c r="Q71" s="13"/>
-      <c r="R71" s="13"/>
-      <c r="S71" s="13"/>
-      <c r="T71" s="13"/>
-      <c r="U71" s="13"/>
-      <c r="V71" s="13"/>
-      <c r="W71" s="13"/>
-      <c r="X71" s="13"/>
-      <c r="Y71" s="13"/>
-      <c r="Z71" s="13"/>
-      <c r="AA71" s="13"/>
-      <c r="AB71" s="13"/>
+      <c r="A71" s="20"/>
+      <c r="B71" s="20"/>
+      <c r="D71" s="18"/>
+      <c r="E71" s="20"/>
+      <c r="F71" s="18"/>
+      <c r="G71" s="18"/>
+      <c r="H71" s="5"/>
+      <c r="I71" s="18"/>
+      <c r="J71" s="18"/>
+      <c r="K71" s="18"/>
+      <c r="L71" s="18"/>
+      <c r="M71" s="18"/>
+      <c r="N71" s="18"/>
+      <c r="O71" s="18"/>
+      <c r="P71" s="18"/>
+      <c r="Q71" s="18"/>
+      <c r="R71" s="18"/>
+      <c r="S71" s="18"/>
+      <c r="T71" s="18"/>
+      <c r="U71" s="18"/>
+      <c r="V71" s="18"/>
+      <c r="W71" s="18"/>
+      <c r="X71" s="18"/>
+      <c r="Y71" s="18"/>
+      <c r="Z71" s="18"/>
+      <c r="AA71" s="18"/>
+      <c r="AB71" s="18"/>
     </row>
     <row r="72">
       <c r="A72" s="20"/>
       <c r="B72" s="20"/>
-      <c r="C72" s="20"/>
       <c r="D72" s="18"/>
       <c r="E72" s="20"/>
       <c r="F72" s="18"/>
@@ -3240,37 +3284,39 @@
       <c r="AB73" s="18"/>
     </row>
     <row r="74">
-      <c r="A74" s="20"/>
-      <c r="B74" s="20"/>
-      <c r="D74" s="18"/>
-      <c r="E74" s="20"/>
-      <c r="F74" s="18"/>
-      <c r="G74" s="18"/>
-      <c r="H74" s="5"/>
-      <c r="I74" s="18"/>
-      <c r="J74" s="18"/>
-      <c r="K74" s="18"/>
-      <c r="L74" s="18"/>
-      <c r="M74" s="18"/>
-      <c r="N74" s="18"/>
-      <c r="O74" s="18"/>
-      <c r="P74" s="18"/>
-      <c r="Q74" s="18"/>
-      <c r="R74" s="18"/>
-      <c r="S74" s="18"/>
-      <c r="T74" s="18"/>
-      <c r="U74" s="18"/>
-      <c r="V74" s="18"/>
-      <c r="W74" s="18"/>
-      <c r="X74" s="18"/>
-      <c r="Y74" s="18"/>
-      <c r="Z74" s="18"/>
-      <c r="AA74" s="18"/>
-      <c r="AB74" s="18"/>
+      <c r="A74" s="12"/>
+      <c r="B74" s="12"/>
+      <c r="C74" s="12"/>
+      <c r="D74" s="13"/>
+      <c r="E74" s="12"/>
+      <c r="F74" s="13"/>
+      <c r="G74" s="13"/>
+      <c r="H74" s="10"/>
+      <c r="I74" s="13"/>
+      <c r="J74" s="13"/>
+      <c r="K74" s="13"/>
+      <c r="L74" s="13"/>
+      <c r="M74" s="13"/>
+      <c r="N74" s="13"/>
+      <c r="O74" s="13"/>
+      <c r="P74" s="13"/>
+      <c r="Q74" s="13"/>
+      <c r="R74" s="13"/>
+      <c r="S74" s="13"/>
+      <c r="T74" s="13"/>
+      <c r="U74" s="13"/>
+      <c r="V74" s="13"/>
+      <c r="W74" s="13"/>
+      <c r="X74" s="13"/>
+      <c r="Y74" s="13"/>
+      <c r="Z74" s="13"/>
+      <c r="AA74" s="13"/>
+      <c r="AB74" s="13"/>
     </row>
     <row r="75">
       <c r="A75" s="20"/>
       <c r="B75" s="20"/>
+      <c r="C75" s="20"/>
       <c r="D75" s="18"/>
       <c r="E75" s="20"/>
       <c r="F75" s="18"/>
@@ -3356,39 +3402,37 @@
       <c r="AB77" s="18"/>
     </row>
     <row r="78">
-      <c r="A78" s="12"/>
-      <c r="B78" s="12"/>
-      <c r="C78" s="12"/>
-      <c r="D78" s="13"/>
-      <c r="E78" s="12"/>
-      <c r="F78" s="13"/>
-      <c r="G78" s="13"/>
+      <c r="A78" s="20"/>
+      <c r="B78" s="20"/>
+      <c r="D78" s="18"/>
+      <c r="E78" s="20"/>
+      <c r="F78" s="18"/>
+      <c r="G78" s="18"/>
       <c r="H78" s="5"/>
-      <c r="I78" s="13"/>
-      <c r="J78" s="13"/>
-      <c r="K78" s="13"/>
-      <c r="L78" s="13"/>
-      <c r="M78" s="13"/>
-      <c r="N78" s="13"/>
-      <c r="O78" s="13"/>
-      <c r="P78" s="13"/>
-      <c r="Q78" s="13"/>
-      <c r="R78" s="13"/>
-      <c r="S78" s="13"/>
-      <c r="T78" s="13"/>
-      <c r="U78" s="13"/>
-      <c r="V78" s="13"/>
-      <c r="W78" s="13"/>
-      <c r="X78" s="13"/>
-      <c r="Y78" s="13"/>
-      <c r="Z78" s="13"/>
-      <c r="AA78" s="13"/>
-      <c r="AB78" s="13"/>
+      <c r="I78" s="18"/>
+      <c r="J78" s="18"/>
+      <c r="K78" s="18"/>
+      <c r="L78" s="18"/>
+      <c r="M78" s="18"/>
+      <c r="N78" s="18"/>
+      <c r="O78" s="18"/>
+      <c r="P78" s="18"/>
+      <c r="Q78" s="18"/>
+      <c r="R78" s="18"/>
+      <c r="S78" s="18"/>
+      <c r="T78" s="18"/>
+      <c r="U78" s="18"/>
+      <c r="V78" s="18"/>
+      <c r="W78" s="18"/>
+      <c r="X78" s="18"/>
+      <c r="Y78" s="18"/>
+      <c r="Z78" s="18"/>
+      <c r="AA78" s="18"/>
+      <c r="AB78" s="18"/>
     </row>
     <row r="79">
       <c r="A79" s="20"/>
       <c r="B79" s="20"/>
-      <c r="C79" s="20"/>
       <c r="D79" s="18"/>
       <c r="E79" s="20"/>
       <c r="F79" s="18"/>
@@ -3445,37 +3489,39 @@
       <c r="AB80" s="18"/>
     </row>
     <row r="81">
-      <c r="A81" s="20"/>
-      <c r="B81" s="20"/>
-      <c r="D81" s="18"/>
-      <c r="E81" s="20"/>
-      <c r="F81" s="18"/>
-      <c r="G81" s="18"/>
+      <c r="A81" s="12"/>
+      <c r="B81" s="12"/>
+      <c r="C81" s="12"/>
+      <c r="D81" s="13"/>
+      <c r="E81" s="12"/>
+      <c r="F81" s="13"/>
+      <c r="G81" s="13"/>
       <c r="H81" s="5"/>
-      <c r="I81" s="18"/>
-      <c r="J81" s="18"/>
-      <c r="K81" s="18"/>
-      <c r="L81" s="18"/>
-      <c r="M81" s="18"/>
-      <c r="N81" s="18"/>
-      <c r="O81" s="18"/>
-      <c r="P81" s="18"/>
-      <c r="Q81" s="18"/>
-      <c r="R81" s="18"/>
-      <c r="S81" s="18"/>
-      <c r="T81" s="18"/>
-      <c r="U81" s="18"/>
-      <c r="V81" s="18"/>
-      <c r="W81" s="18"/>
-      <c r="X81" s="18"/>
-      <c r="Y81" s="18"/>
-      <c r="Z81" s="18"/>
-      <c r="AA81" s="18"/>
-      <c r="AB81" s="18"/>
+      <c r="I81" s="13"/>
+      <c r="J81" s="13"/>
+      <c r="K81" s="13"/>
+      <c r="L81" s="13"/>
+      <c r="M81" s="13"/>
+      <c r="N81" s="13"/>
+      <c r="O81" s="13"/>
+      <c r="P81" s="13"/>
+      <c r="Q81" s="13"/>
+      <c r="R81" s="13"/>
+      <c r="S81" s="13"/>
+      <c r="T81" s="13"/>
+      <c r="U81" s="13"/>
+      <c r="V81" s="13"/>
+      <c r="W81" s="13"/>
+      <c r="X81" s="13"/>
+      <c r="Y81" s="13"/>
+      <c r="Z81" s="13"/>
+      <c r="AA81" s="13"/>
+      <c r="AB81" s="13"/>
     </row>
     <row r="82">
       <c r="A82" s="20"/>
       <c r="B82" s="20"/>
+      <c r="C82" s="20"/>
       <c r="D82" s="18"/>
       <c r="E82" s="20"/>
       <c r="F82" s="18"/>
@@ -3561,39 +3607,37 @@
       <c r="AB84" s="18"/>
     </row>
     <row r="85">
-      <c r="A85" s="12"/>
-      <c r="B85" s="12"/>
-      <c r="C85" s="12"/>
-      <c r="D85" s="13"/>
-      <c r="E85" s="12"/>
-      <c r="F85" s="13"/>
-      <c r="G85" s="13"/>
+      <c r="A85" s="20"/>
+      <c r="B85" s="20"/>
+      <c r="D85" s="18"/>
+      <c r="E85" s="20"/>
+      <c r="F85" s="18"/>
+      <c r="G85" s="18"/>
       <c r="H85" s="5"/>
-      <c r="I85" s="13"/>
-      <c r="J85" s="13"/>
-      <c r="K85" s="13"/>
-      <c r="L85" s="13"/>
-      <c r="M85" s="13"/>
-      <c r="N85" s="13"/>
-      <c r="O85" s="13"/>
-      <c r="P85" s="13"/>
-      <c r="Q85" s="13"/>
-      <c r="R85" s="13"/>
-      <c r="S85" s="13"/>
-      <c r="T85" s="13"/>
-      <c r="U85" s="13"/>
-      <c r="V85" s="13"/>
-      <c r="W85" s="13"/>
-      <c r="X85" s="13"/>
-      <c r="Y85" s="13"/>
-      <c r="Z85" s="13"/>
-      <c r="AA85" s="13"/>
-      <c r="AB85" s="13"/>
+      <c r="I85" s="18"/>
+      <c r="J85" s="18"/>
+      <c r="K85" s="18"/>
+      <c r="L85" s="18"/>
+      <c r="M85" s="18"/>
+      <c r="N85" s="18"/>
+      <c r="O85" s="18"/>
+      <c r="P85" s="18"/>
+      <c r="Q85" s="18"/>
+      <c r="R85" s="18"/>
+      <c r="S85" s="18"/>
+      <c r="T85" s="18"/>
+      <c r="U85" s="18"/>
+      <c r="V85" s="18"/>
+      <c r="W85" s="18"/>
+      <c r="X85" s="18"/>
+      <c r="Y85" s="18"/>
+      <c r="Z85" s="18"/>
+      <c r="AA85" s="18"/>
+      <c r="AB85" s="18"/>
     </row>
     <row r="86">
       <c r="A86" s="20"/>
       <c r="B86" s="20"/>
-      <c r="C86" s="20"/>
       <c r="D86" s="18"/>
       <c r="E86" s="20"/>
       <c r="F86" s="18"/>
@@ -3650,37 +3694,39 @@
       <c r="AB87" s="18"/>
     </row>
     <row r="88">
-      <c r="A88" s="20"/>
-      <c r="B88" s="20"/>
-      <c r="D88" s="18"/>
-      <c r="E88" s="20"/>
-      <c r="F88" s="18"/>
-      <c r="G88" s="18"/>
+      <c r="A88" s="12"/>
+      <c r="B88" s="12"/>
+      <c r="C88" s="12"/>
+      <c r="D88" s="13"/>
+      <c r="E88" s="12"/>
+      <c r="F88" s="13"/>
+      <c r="G88" s="13"/>
       <c r="H88" s="5"/>
-      <c r="I88" s="18"/>
-      <c r="J88" s="18"/>
-      <c r="K88" s="18"/>
-      <c r="L88" s="18"/>
-      <c r="M88" s="18"/>
-      <c r="N88" s="18"/>
-      <c r="O88" s="18"/>
-      <c r="P88" s="18"/>
-      <c r="Q88" s="18"/>
-      <c r="R88" s="18"/>
-      <c r="S88" s="18"/>
-      <c r="T88" s="18"/>
-      <c r="U88" s="18"/>
-      <c r="V88" s="18"/>
-      <c r="W88" s="18"/>
-      <c r="X88" s="18"/>
-      <c r="Y88" s="18"/>
-      <c r="Z88" s="18"/>
-      <c r="AA88" s="18"/>
-      <c r="AB88" s="18"/>
+      <c r="I88" s="13"/>
+      <c r="J88" s="13"/>
+      <c r="K88" s="13"/>
+      <c r="L88" s="13"/>
+      <c r="M88" s="13"/>
+      <c r="N88" s="13"/>
+      <c r="O88" s="13"/>
+      <c r="P88" s="13"/>
+      <c r="Q88" s="13"/>
+      <c r="R88" s="13"/>
+      <c r="S88" s="13"/>
+      <c r="T88" s="13"/>
+      <c r="U88" s="13"/>
+      <c r="V88" s="13"/>
+      <c r="W88" s="13"/>
+      <c r="X88" s="13"/>
+      <c r="Y88" s="13"/>
+      <c r="Z88" s="13"/>
+      <c r="AA88" s="13"/>
+      <c r="AB88" s="13"/>
     </row>
     <row r="89">
       <c r="A89" s="20"/>
       <c r="B89" s="20"/>
+      <c r="C89" s="20"/>
       <c r="D89" s="18"/>
       <c r="E89" s="20"/>
       <c r="F89" s="18"/>
@@ -3766,39 +3812,37 @@
       <c r="AB91" s="18"/>
     </row>
     <row r="92">
-      <c r="A92" s="12"/>
-      <c r="B92" s="12"/>
-      <c r="C92" s="12"/>
-      <c r="D92" s="13"/>
-      <c r="E92" s="12"/>
-      <c r="F92" s="13"/>
-      <c r="G92" s="13"/>
+      <c r="A92" s="20"/>
+      <c r="B92" s="20"/>
+      <c r="D92" s="18"/>
+      <c r="E92" s="20"/>
+      <c r="F92" s="18"/>
+      <c r="G92" s="18"/>
       <c r="H92" s="5"/>
-      <c r="I92" s="13"/>
-      <c r="J92" s="13"/>
-      <c r="K92" s="13"/>
-      <c r="L92" s="13"/>
-      <c r="M92" s="13"/>
-      <c r="N92" s="13"/>
-      <c r="O92" s="13"/>
-      <c r="P92" s="13"/>
-      <c r="Q92" s="13"/>
-      <c r="R92" s="13"/>
-      <c r="S92" s="13"/>
-      <c r="T92" s="13"/>
-      <c r="U92" s="13"/>
-      <c r="V92" s="13"/>
-      <c r="W92" s="13"/>
-      <c r="X92" s="13"/>
-      <c r="Y92" s="13"/>
-      <c r="Z92" s="13"/>
-      <c r="AA92" s="13"/>
-      <c r="AB92" s="13"/>
+      <c r="I92" s="18"/>
+      <c r="J92" s="18"/>
+      <c r="K92" s="18"/>
+      <c r="L92" s="18"/>
+      <c r="M92" s="18"/>
+      <c r="N92" s="18"/>
+      <c r="O92" s="18"/>
+      <c r="P92" s="18"/>
+      <c r="Q92" s="18"/>
+      <c r="R92" s="18"/>
+      <c r="S92" s="18"/>
+      <c r="T92" s="18"/>
+      <c r="U92" s="18"/>
+      <c r="V92" s="18"/>
+      <c r="W92" s="18"/>
+      <c r="X92" s="18"/>
+      <c r="Y92" s="18"/>
+      <c r="Z92" s="18"/>
+      <c r="AA92" s="18"/>
+      <c r="AB92" s="18"/>
     </row>
     <row r="93">
       <c r="A93" s="20"/>
       <c r="B93" s="20"/>
-      <c r="C93" s="20"/>
       <c r="D93" s="18"/>
       <c r="E93" s="20"/>
       <c r="F93" s="18"/>
@@ -3855,37 +3899,39 @@
       <c r="AB94" s="18"/>
     </row>
     <row r="95">
-      <c r="A95" s="20"/>
-      <c r="B95" s="20"/>
-      <c r="D95" s="18"/>
-      <c r="E95" s="20"/>
-      <c r="F95" s="18"/>
-      <c r="G95" s="18"/>
+      <c r="A95" s="12"/>
+      <c r="B95" s="12"/>
+      <c r="C95" s="12"/>
+      <c r="D95" s="13"/>
+      <c r="E95" s="12"/>
+      <c r="F95" s="13"/>
+      <c r="G95" s="13"/>
       <c r="H95" s="5"/>
-      <c r="I95" s="18"/>
-      <c r="J95" s="18"/>
-      <c r="K95" s="18"/>
-      <c r="L95" s="18"/>
-      <c r="M95" s="18"/>
-      <c r="N95" s="18"/>
-      <c r="O95" s="18"/>
-      <c r="P95" s="18"/>
-      <c r="Q95" s="18"/>
-      <c r="R95" s="18"/>
-      <c r="S95" s="18"/>
-      <c r="T95" s="18"/>
-      <c r="U95" s="18"/>
-      <c r="V95" s="18"/>
-      <c r="W95" s="18"/>
-      <c r="X95" s="18"/>
-      <c r="Y95" s="18"/>
-      <c r="Z95" s="18"/>
-      <c r="AA95" s="18"/>
-      <c r="AB95" s="18"/>
+      <c r="I95" s="13"/>
+      <c r="J95" s="13"/>
+      <c r="K95" s="13"/>
+      <c r="L95" s="13"/>
+      <c r="M95" s="13"/>
+      <c r="N95" s="13"/>
+      <c r="O95" s="13"/>
+      <c r="P95" s="13"/>
+      <c r="Q95" s="13"/>
+      <c r="R95" s="13"/>
+      <c r="S95" s="13"/>
+      <c r="T95" s="13"/>
+      <c r="U95" s="13"/>
+      <c r="V95" s="13"/>
+      <c r="W95" s="13"/>
+      <c r="X95" s="13"/>
+      <c r="Y95" s="13"/>
+      <c r="Z95" s="13"/>
+      <c r="AA95" s="13"/>
+      <c r="AB95" s="13"/>
     </row>
     <row r="96">
       <c r="A96" s="20"/>
       <c r="B96" s="20"/>
+      <c r="C96" s="20"/>
       <c r="D96" s="18"/>
       <c r="E96" s="20"/>
       <c r="F96" s="18"/>
@@ -3971,39 +4017,37 @@
       <c r="AB98" s="18"/>
     </row>
     <row r="99">
-      <c r="A99" s="12"/>
-      <c r="B99" s="12"/>
-      <c r="C99" s="12"/>
-      <c r="D99" s="13"/>
-      <c r="E99" s="12"/>
-      <c r="F99" s="13"/>
-      <c r="G99" s="13"/>
+      <c r="A99" s="20"/>
+      <c r="B99" s="20"/>
+      <c r="D99" s="18"/>
+      <c r="E99" s="20"/>
+      <c r="F99" s="18"/>
+      <c r="G99" s="18"/>
       <c r="H99" s="5"/>
-      <c r="I99" s="13"/>
-      <c r="J99" s="13"/>
-      <c r="K99" s="13"/>
-      <c r="L99" s="13"/>
-      <c r="M99" s="13"/>
-      <c r="N99" s="13"/>
-      <c r="O99" s="13"/>
-      <c r="P99" s="13"/>
-      <c r="Q99" s="13"/>
-      <c r="R99" s="13"/>
-      <c r="S99" s="13"/>
-      <c r="T99" s="13"/>
-      <c r="U99" s="13"/>
-      <c r="V99" s="13"/>
-      <c r="W99" s="13"/>
-      <c r="X99" s="13"/>
-      <c r="Y99" s="13"/>
-      <c r="Z99" s="13"/>
-      <c r="AA99" s="13"/>
-      <c r="AB99" s="13"/>
+      <c r="I99" s="18"/>
+      <c r="J99" s="18"/>
+      <c r="K99" s="18"/>
+      <c r="L99" s="18"/>
+      <c r="M99" s="18"/>
+      <c r="N99" s="18"/>
+      <c r="O99" s="18"/>
+      <c r="P99" s="18"/>
+      <c r="Q99" s="18"/>
+      <c r="R99" s="18"/>
+      <c r="S99" s="18"/>
+      <c r="T99" s="18"/>
+      <c r="U99" s="18"/>
+      <c r="V99" s="18"/>
+      <c r="W99" s="18"/>
+      <c r="X99" s="18"/>
+      <c r="Y99" s="18"/>
+      <c r="Z99" s="18"/>
+      <c r="AA99" s="18"/>
+      <c r="AB99" s="18"/>
     </row>
     <row r="100">
       <c r="A100" s="20"/>
       <c r="B100" s="20"/>
-      <c r="C100" s="20"/>
       <c r="D100" s="18"/>
       <c r="E100" s="20"/>
       <c r="F100" s="18"/>
@@ -4060,37 +4104,39 @@
       <c r="AB101" s="18"/>
     </row>
     <row r="102">
-      <c r="A102" s="20"/>
-      <c r="B102" s="20"/>
-      <c r="D102" s="18"/>
-      <c r="E102" s="20"/>
-      <c r="F102" s="18"/>
-      <c r="G102" s="18"/>
+      <c r="A102" s="12"/>
+      <c r="B102" s="12"/>
+      <c r="C102" s="12"/>
+      <c r="D102" s="13"/>
+      <c r="E102" s="12"/>
+      <c r="F102" s="13"/>
+      <c r="G102" s="13"/>
       <c r="H102" s="5"/>
-      <c r="I102" s="18"/>
-      <c r="J102" s="18"/>
-      <c r="K102" s="18"/>
-      <c r="L102" s="18"/>
-      <c r="M102" s="18"/>
-      <c r="N102" s="18"/>
-      <c r="O102" s="18"/>
-      <c r="P102" s="18"/>
-      <c r="Q102" s="18"/>
-      <c r="R102" s="18"/>
-      <c r="S102" s="18"/>
-      <c r="T102" s="18"/>
-      <c r="U102" s="18"/>
-      <c r="V102" s="18"/>
-      <c r="W102" s="18"/>
-      <c r="X102" s="18"/>
-      <c r="Y102" s="18"/>
-      <c r="Z102" s="18"/>
-      <c r="AA102" s="18"/>
-      <c r="AB102" s="18"/>
+      <c r="I102" s="13"/>
+      <c r="J102" s="13"/>
+      <c r="K102" s="13"/>
+      <c r="L102" s="13"/>
+      <c r="M102" s="13"/>
+      <c r="N102" s="13"/>
+      <c r="O102" s="13"/>
+      <c r="P102" s="13"/>
+      <c r="Q102" s="13"/>
+      <c r="R102" s="13"/>
+      <c r="S102" s="13"/>
+      <c r="T102" s="13"/>
+      <c r="U102" s="13"/>
+      <c r="V102" s="13"/>
+      <c r="W102" s="13"/>
+      <c r="X102" s="13"/>
+      <c r="Y102" s="13"/>
+      <c r="Z102" s="13"/>
+      <c r="AA102" s="13"/>
+      <c r="AB102" s="13"/>
     </row>
     <row r="103">
       <c r="A103" s="20"/>
       <c r="B103" s="20"/>
+      <c r="C103" s="20"/>
       <c r="D103" s="18"/>
       <c r="E103" s="20"/>
       <c r="F103" s="18"/>
@@ -4176,124 +4222,121 @@
       <c r="AB105" s="18"/>
     </row>
     <row r="106">
-      <c r="A106" s="12"/>
-      <c r="B106" s="12"/>
-      <c r="C106" s="12"/>
-      <c r="D106" s="13"/>
-      <c r="E106" s="12"/>
-      <c r="F106" s="13"/>
-      <c r="G106" s="13"/>
+      <c r="A106" s="20"/>
+      <c r="B106" s="20"/>
+      <c r="D106" s="18"/>
+      <c r="E106" s="20"/>
+      <c r="F106" s="18"/>
+      <c r="G106" s="18"/>
       <c r="H106" s="5"/>
-      <c r="I106" s="13"/>
-      <c r="J106" s="13"/>
-      <c r="K106" s="13"/>
-      <c r="L106" s="13"/>
-      <c r="M106" s="13"/>
-      <c r="N106" s="13"/>
-      <c r="O106" s="13"/>
-      <c r="P106" s="13"/>
-      <c r="Q106" s="13"/>
-      <c r="R106" s="13"/>
-      <c r="S106" s="13"/>
-      <c r="T106" s="13"/>
-      <c r="U106" s="13"/>
-      <c r="V106" s="13"/>
-      <c r="W106" s="13"/>
-      <c r="X106" s="13"/>
-      <c r="Y106" s="13"/>
-      <c r="Z106" s="13"/>
-      <c r="AA106" s="13"/>
-      <c r="AB106" s="13"/>
+      <c r="I106" s="18"/>
+      <c r="J106" s="18"/>
+      <c r="K106" s="18"/>
+      <c r="L106" s="18"/>
+      <c r="M106" s="18"/>
+      <c r="N106" s="18"/>
+      <c r="O106" s="18"/>
+      <c r="P106" s="18"/>
+      <c r="Q106" s="18"/>
+      <c r="R106" s="18"/>
+      <c r="S106" s="18"/>
+      <c r="T106" s="18"/>
+      <c r="U106" s="18"/>
+      <c r="V106" s="18"/>
+      <c r="W106" s="18"/>
+      <c r="X106" s="18"/>
+      <c r="Y106" s="18"/>
+      <c r="Z106" s="18"/>
+      <c r="AA106" s="18"/>
+      <c r="AB106" s="18"/>
     </row>
     <row r="107">
-      <c r="A107" s="21"/>
-      <c r="B107" s="21"/>
-      <c r="C107" s="21"/>
-      <c r="D107" s="6"/>
-      <c r="E107" s="21"/>
-      <c r="F107" s="6"/>
-      <c r="G107" s="6"/>
+      <c r="A107" s="20"/>
+      <c r="B107" s="20"/>
+      <c r="D107" s="18"/>
+      <c r="E107" s="20"/>
+      <c r="F107" s="18"/>
+      <c r="G107" s="18"/>
       <c r="H107" s="5"/>
-      <c r="I107" s="6"/>
-      <c r="J107" s="6"/>
-      <c r="K107" s="6"/>
-      <c r="L107" s="6"/>
-      <c r="M107" s="6"/>
-      <c r="N107" s="6"/>
-      <c r="O107" s="6"/>
-      <c r="P107" s="6"/>
-      <c r="Q107" s="6"/>
-      <c r="R107" s="6"/>
-      <c r="S107" s="6"/>
-      <c r="T107" s="6"/>
-      <c r="U107" s="6"/>
-      <c r="V107" s="6"/>
-      <c r="W107" s="6"/>
-      <c r="X107" s="6"/>
-      <c r="Y107" s="6"/>
-      <c r="Z107" s="6"/>
-      <c r="AA107" s="6"/>
-      <c r="AB107" s="6"/>
+      <c r="I107" s="18"/>
+      <c r="J107" s="18"/>
+      <c r="K107" s="18"/>
+      <c r="L107" s="18"/>
+      <c r="M107" s="18"/>
+      <c r="N107" s="18"/>
+      <c r="O107" s="18"/>
+      <c r="P107" s="18"/>
+      <c r="Q107" s="18"/>
+      <c r="R107" s="18"/>
+      <c r="S107" s="18"/>
+      <c r="T107" s="18"/>
+      <c r="U107" s="18"/>
+      <c r="V107" s="18"/>
+      <c r="W107" s="18"/>
+      <c r="X107" s="18"/>
+      <c r="Y107" s="18"/>
+      <c r="Z107" s="18"/>
+      <c r="AA107" s="18"/>
+      <c r="AB107" s="18"/>
     </row>
     <row r="108">
-      <c r="A108" s="21"/>
-      <c r="B108" s="21"/>
-      <c r="C108" s="21"/>
-      <c r="D108" s="6"/>
-      <c r="E108" s="21"/>
-      <c r="F108" s="6"/>
-      <c r="G108" s="6"/>
+      <c r="A108" s="20"/>
+      <c r="B108" s="20"/>
+      <c r="D108" s="18"/>
+      <c r="E108" s="20"/>
+      <c r="F108" s="18"/>
+      <c r="G108" s="18"/>
       <c r="H108" s="5"/>
-      <c r="I108" s="6"/>
-      <c r="J108" s="6"/>
-      <c r="K108" s="6"/>
-      <c r="L108" s="6"/>
-      <c r="M108" s="6"/>
-      <c r="N108" s="6"/>
-      <c r="O108" s="6"/>
-      <c r="P108" s="6"/>
-      <c r="Q108" s="6"/>
-      <c r="R108" s="6"/>
-      <c r="S108" s="6"/>
-      <c r="T108" s="6"/>
-      <c r="U108" s="6"/>
-      <c r="V108" s="6"/>
-      <c r="W108" s="6"/>
-      <c r="X108" s="6"/>
-      <c r="Y108" s="6"/>
-      <c r="Z108" s="6"/>
-      <c r="AA108" s="6"/>
-      <c r="AB108" s="6"/>
+      <c r="I108" s="18"/>
+      <c r="J108" s="18"/>
+      <c r="K108" s="18"/>
+      <c r="L108" s="18"/>
+      <c r="M108" s="18"/>
+      <c r="N108" s="18"/>
+      <c r="O108" s="18"/>
+      <c r="P108" s="18"/>
+      <c r="Q108" s="18"/>
+      <c r="R108" s="18"/>
+      <c r="S108" s="18"/>
+      <c r="T108" s="18"/>
+      <c r="U108" s="18"/>
+      <c r="V108" s="18"/>
+      <c r="W108" s="18"/>
+      <c r="X108" s="18"/>
+      <c r="Y108" s="18"/>
+      <c r="Z108" s="18"/>
+      <c r="AA108" s="18"/>
+      <c r="AB108" s="18"/>
     </row>
     <row r="109">
-      <c r="A109" s="21"/>
-      <c r="B109" s="21"/>
-      <c r="C109" s="21"/>
-      <c r="D109" s="6"/>
-      <c r="E109" s="21"/>
-      <c r="F109" s="6"/>
-      <c r="G109" s="6"/>
+      <c r="A109" s="12"/>
+      <c r="B109" s="12"/>
+      <c r="C109" s="12"/>
+      <c r="D109" s="13"/>
+      <c r="E109" s="12"/>
+      <c r="F109" s="13"/>
+      <c r="G109" s="13"/>
       <c r="H109" s="5"/>
-      <c r="I109" s="6"/>
-      <c r="J109" s="6"/>
-      <c r="K109" s="6"/>
-      <c r="L109" s="6"/>
-      <c r="M109" s="6"/>
-      <c r="N109" s="6"/>
-      <c r="O109" s="6"/>
-      <c r="P109" s="6"/>
-      <c r="Q109" s="6"/>
-      <c r="R109" s="6"/>
-      <c r="S109" s="6"/>
-      <c r="T109" s="6"/>
-      <c r="U109" s="6"/>
-      <c r="V109" s="6"/>
-      <c r="W109" s="6"/>
-      <c r="X109" s="6"/>
-      <c r="Y109" s="6"/>
-      <c r="Z109" s="6"/>
-      <c r="AA109" s="6"/>
-      <c r="AB109" s="6"/>
+      <c r="I109" s="13"/>
+      <c r="J109" s="13"/>
+      <c r="K109" s="13"/>
+      <c r="L109" s="13"/>
+      <c r="M109" s="13"/>
+      <c r="N109" s="13"/>
+      <c r="O109" s="13"/>
+      <c r="P109" s="13"/>
+      <c r="Q109" s="13"/>
+      <c r="R109" s="13"/>
+      <c r="S109" s="13"/>
+      <c r="T109" s="13"/>
+      <c r="U109" s="13"/>
+      <c r="V109" s="13"/>
+      <c r="W109" s="13"/>
+      <c r="X109" s="13"/>
+      <c r="Y109" s="13"/>
+      <c r="Z109" s="13"/>
+      <c r="AA109" s="13"/>
+      <c r="AB109" s="13"/>
     </row>
     <row r="110">
       <c r="A110" s="21"/>
@@ -7573,9 +7616,7 @@
       <c r="E219" s="21"/>
       <c r="F219" s="6"/>
       <c r="G219" s="6"/>
-      <c r="H219" s="5" t="s">
-        <v>21</v>
-      </c>
+      <c r="H219" s="5"/>
       <c r="I219" s="6"/>
       <c r="J219" s="6"/>
       <c r="K219" s="6"/>
@@ -7605,9 +7646,7 @@
       <c r="E220" s="21"/>
       <c r="F220" s="6"/>
       <c r="G220" s="6"/>
-      <c r="H220" s="5" t="s">
-        <v>21</v>
-      </c>
+      <c r="H220" s="5"/>
       <c r="I220" s="6"/>
       <c r="J220" s="6"/>
       <c r="K220" s="6"/>
@@ -7637,9 +7676,7 @@
       <c r="E221" s="21"/>
       <c r="F221" s="6"/>
       <c r="G221" s="6"/>
-      <c r="H221" s="5" t="s">
-        <v>21</v>
-      </c>
+      <c r="H221" s="5"/>
       <c r="I221" s="6"/>
       <c r="J221" s="6"/>
       <c r="K221" s="6"/>
@@ -32365,32 +32402,129 @@
       <c r="AA993" s="6"/>
       <c r="AB993" s="6"/>
     </row>
+    <row r="994">
+      <c r="A994" s="21"/>
+      <c r="B994" s="21"/>
+      <c r="C994" s="21"/>
+      <c r="D994" s="6"/>
+      <c r="E994" s="21"/>
+      <c r="F994" s="6"/>
+      <c r="G994" s="6"/>
+      <c r="H994" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I994" s="6"/>
+      <c r="J994" s="6"/>
+      <c r="K994" s="6"/>
+      <c r="L994" s="6"/>
+      <c r="M994" s="6"/>
+      <c r="N994" s="6"/>
+      <c r="O994" s="6"/>
+      <c r="P994" s="6"/>
+      <c r="Q994" s="6"/>
+      <c r="R994" s="6"/>
+      <c r="S994" s="6"/>
+      <c r="T994" s="6"/>
+      <c r="U994" s="6"/>
+      <c r="V994" s="6"/>
+      <c r="W994" s="6"/>
+      <c r="X994" s="6"/>
+      <c r="Y994" s="6"/>
+      <c r="Z994" s="6"/>
+      <c r="AA994" s="6"/>
+      <c r="AB994" s="6"/>
+    </row>
+    <row r="995">
+      <c r="A995" s="21"/>
+      <c r="B995" s="21"/>
+      <c r="C995" s="21"/>
+      <c r="D995" s="6"/>
+      <c r="E995" s="21"/>
+      <c r="F995" s="6"/>
+      <c r="G995" s="6"/>
+      <c r="H995" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I995" s="6"/>
+      <c r="J995" s="6"/>
+      <c r="K995" s="6"/>
+      <c r="L995" s="6"/>
+      <c r="M995" s="6"/>
+      <c r="N995" s="6"/>
+      <c r="O995" s="6"/>
+      <c r="P995" s="6"/>
+      <c r="Q995" s="6"/>
+      <c r="R995" s="6"/>
+      <c r="S995" s="6"/>
+      <c r="T995" s="6"/>
+      <c r="U995" s="6"/>
+      <c r="V995" s="6"/>
+      <c r="W995" s="6"/>
+      <c r="X995" s="6"/>
+      <c r="Y995" s="6"/>
+      <c r="Z995" s="6"/>
+      <c r="AA995" s="6"/>
+      <c r="AB995" s="6"/>
+    </row>
+    <row r="996">
+      <c r="A996" s="21"/>
+      <c r="B996" s="21"/>
+      <c r="C996" s="21"/>
+      <c r="D996" s="6"/>
+      <c r="E996" s="21"/>
+      <c r="F996" s="6"/>
+      <c r="G996" s="6"/>
+      <c r="H996" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I996" s="6"/>
+      <c r="J996" s="6"/>
+      <c r="K996" s="6"/>
+      <c r="L996" s="6"/>
+      <c r="M996" s="6"/>
+      <c r="N996" s="6"/>
+      <c r="O996" s="6"/>
+      <c r="P996" s="6"/>
+      <c r="Q996" s="6"/>
+      <c r="R996" s="6"/>
+      <c r="S996" s="6"/>
+      <c r="T996" s="6"/>
+      <c r="U996" s="6"/>
+      <c r="V996" s="6"/>
+      <c r="W996" s="6"/>
+      <c r="X996" s="6"/>
+      <c r="Y996" s="6"/>
+      <c r="Z996" s="6"/>
+      <c r="AA996" s="6"/>
+      <c r="AB996" s="6"/>
+    </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="25">
     <mergeCell ref="C14:C18"/>
     <mergeCell ref="C20:C24"/>
     <mergeCell ref="C9:C12"/>
     <mergeCell ref="C26:C30"/>
-    <mergeCell ref="C45:C52"/>
-    <mergeCell ref="E45:E52"/>
-    <mergeCell ref="C32:C43"/>
-    <mergeCell ref="C54:C57"/>
-    <mergeCell ref="E54:E57"/>
+    <mergeCell ref="C48:C55"/>
+    <mergeCell ref="E57:E60"/>
+    <mergeCell ref="E48:E51"/>
+    <mergeCell ref="E52:E55"/>
     <mergeCell ref="E2:E7"/>
     <mergeCell ref="E9:E12"/>
     <mergeCell ref="E14:E18"/>
     <mergeCell ref="E20:E24"/>
     <mergeCell ref="E26:E30"/>
-    <mergeCell ref="A2:A52"/>
-    <mergeCell ref="B2:B52"/>
-    <mergeCell ref="C79:C84"/>
-    <mergeCell ref="C86:C91"/>
-    <mergeCell ref="C93:C98"/>
-    <mergeCell ref="C100:C105"/>
+    <mergeCell ref="A2:A55"/>
+    <mergeCell ref="B2:B55"/>
+    <mergeCell ref="C89:C94"/>
+    <mergeCell ref="C96:C101"/>
+    <mergeCell ref="C103:C108"/>
     <mergeCell ref="C2:C7"/>
-    <mergeCell ref="C65:C70"/>
-    <mergeCell ref="C72:C77"/>
-    <mergeCell ref="C59:C63"/>
+    <mergeCell ref="C32:C43"/>
+    <mergeCell ref="C57:C60"/>
+    <mergeCell ref="C68:C73"/>
+    <mergeCell ref="C75:C80"/>
+    <mergeCell ref="C82:C87"/>
+    <mergeCell ref="C62:C66"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -32418,16 +32552,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
@@ -32452,7 +32586,7 @@
     </row>
     <row r="2" ht="36.0" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>12</v>
@@ -32464,7 +32598,7 @@
         <v>10.0</v>
       </c>
       <c r="E2" s="22">
-        <v>2.0</v>
+        <v>8.0</v>
       </c>
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
@@ -32498,7 +32632,7 @@
         <v>10.0</v>
       </c>
       <c r="E3" s="22">
-        <v>2.0</v>
+        <v>8.0</v>
       </c>
       <c r="F3" s="23"/>
       <c r="G3" s="23"/>
@@ -32532,7 +32666,7 @@
         <v>10.0</v>
       </c>
       <c r="E4" s="22">
-        <v>2.0</v>
+        <v>8.0</v>
       </c>
       <c r="F4" s="23"/>
       <c r="G4" s="23"/>
@@ -32557,7 +32691,7 @@
     </row>
     <row r="5" ht="29.25" customHeight="1">
       <c r="B5" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C5" s="22">
         <v>10.0</v>
@@ -32566,7 +32700,7 @@
         <v>10.0</v>
       </c>
       <c r="E5" s="22">
-        <v>5.0</v>
+        <v>9.0</v>
       </c>
       <c r="F5" s="23"/>
       <c r="G5" s="23"/>
@@ -32600,7 +32734,7 @@
         <v>10.0</v>
       </c>
       <c r="E6" s="22">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="F6" s="23"/>
       <c r="G6" s="23"/>
@@ -32625,7 +32759,7 @@
     </row>
     <row r="7" ht="33.75" customHeight="1">
       <c r="B7" s="4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C7" s="22">
         <v>10.0</v>
@@ -32686,7 +32820,7 @@
     </row>
     <row r="9" ht="33.75" customHeight="1">
       <c r="A9" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B9" s="20" t="s">
         <v>12</v>
@@ -32698,7 +32832,7 @@
         <v>10.0</v>
       </c>
       <c r="E9" s="26">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="F9" s="25"/>
       <c r="G9" s="25"/>
@@ -32732,7 +32866,7 @@
         <v>10.0</v>
       </c>
       <c r="E10" s="26">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="F10" s="25"/>
       <c r="G10" s="25"/>
@@ -32766,7 +32900,7 @@
         <v>10.0</v>
       </c>
       <c r="E11" s="26">
-        <v>3.0</v>
+        <v>8.0</v>
       </c>
       <c r="F11" s="25"/>
       <c r="G11" s="25"/>
@@ -32791,7 +32925,7 @@
     </row>
     <row r="12" ht="29.25" customHeight="1">
       <c r="B12" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C12" s="25">
         <v>10.0</v>
@@ -32800,7 +32934,7 @@
         <v>10.0</v>
       </c>
       <c r="E12" s="26">
-        <v>6.0</v>
+        <v>9.0</v>
       </c>
       <c r="F12" s="25"/>
       <c r="G12" s="25"/>
@@ -32834,7 +32968,7 @@
         <v>10.0</v>
       </c>
       <c r="E13" s="26">
-        <v>3.0</v>
+        <v>8.0</v>
       </c>
       <c r="F13" s="25"/>
       <c r="G13" s="25"/>
@@ -32859,7 +32993,7 @@
     </row>
     <row r="14" ht="38.25" customHeight="1">
       <c r="B14" s="20" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C14" s="25">
         <v>10.0</v>
@@ -32868,7 +33002,7 @@
         <v>10.0</v>
       </c>
       <c r="E14" s="26">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="F14" s="25"/>
       <c r="G14" s="25"/>
@@ -32920,7 +33054,7 @@
     </row>
     <row r="16" ht="35.25" customHeight="1">
       <c r="A16" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B16" s="16" t="s">
         <v>12</v>
@@ -32932,7 +33066,7 @@
         <v>10.0</v>
       </c>
       <c r="E16" s="26">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
       <c r="F16" s="25"/>
       <c r="G16" s="25"/>
@@ -32966,7 +33100,7 @@
         <v>10.0</v>
       </c>
       <c r="E17" s="26">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="F17" s="25"/>
       <c r="G17" s="25"/>
@@ -33000,7 +33134,7 @@
         <v>10.0</v>
       </c>
       <c r="E18" s="26">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
       <c r="F18" s="25"/>
       <c r="G18" s="25"/>
@@ -33025,7 +33159,7 @@
     </row>
     <row r="19" ht="38.25" customHeight="1">
       <c r="B19" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C19" s="25">
         <v>10.0</v>
@@ -33034,7 +33168,7 @@
         <v>10.0</v>
       </c>
       <c r="E19" s="26">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F19" s="25"/>
       <c r="G19" s="25"/>
@@ -33068,7 +33202,7 @@
         <v>10.0</v>
       </c>
       <c r="E20" s="26">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="F20" s="25"/>
       <c r="G20" s="25"/>
@@ -33093,7 +33227,7 @@
     </row>
     <row r="21" ht="34.5" customHeight="1">
       <c r="B21" s="16" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C21" s="25">
         <v>10.0</v>
@@ -33154,7 +33288,7 @@
     </row>
     <row r="23" ht="34.5" customHeight="1">
       <c r="A23" s="4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B23" s="16" t="s">
         <v>12</v>
@@ -33241,7 +33375,7 @@
     </row>
     <row r="26" ht="33.75" customHeight="1">
       <c r="B26" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C26" s="25"/>
       <c r="D26" s="25"/>
@@ -33297,7 +33431,7 @@
     </row>
     <row r="28" ht="33.0" customHeight="1">
       <c r="B28" s="16" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C28" s="25"/>
       <c r="D28" s="25"/>
@@ -33352,7 +33486,7 @@
     </row>
     <row r="30" ht="37.5" customHeight="1">
       <c r="A30" s="4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B30" s="16" t="s">
         <v>12</v>
@@ -33439,7 +33573,7 @@
     </row>
     <row r="33" ht="33.0" customHeight="1">
       <c r="B33" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C33" s="25"/>
       <c r="D33" s="25"/>
@@ -33495,7 +33629,7 @@
     </row>
     <row r="35" ht="42.0" customHeight="1">
       <c r="B35" s="16" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C35" s="25"/>
       <c r="D35" s="25"/>
@@ -33550,7 +33684,7 @@
     </row>
     <row r="37" ht="36.0" customHeight="1">
       <c r="A37" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B37" s="16" t="s">
         <v>12</v>
@@ -33637,7 +33771,7 @@
     </row>
     <row r="40" ht="36.75" customHeight="1">
       <c r="B40" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C40" s="25"/>
       <c r="D40" s="25"/>
@@ -33693,7 +33827,7 @@
     </row>
     <row r="42" ht="34.5" customHeight="1">
       <c r="B42" s="16" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C42" s="25"/>
       <c r="D42" s="25"/>

--- a/Design/QA_OnineClothes_EffortEstimation.xlsx
+++ b/Design/QA_OnineClothes_EffortEstimation.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="102">
   <si>
     <t>Phase</t>
   </si>
@@ -268,6 +268,9 @@
   </si>
   <si>
     <t>Github Repository</t>
+  </si>
+  <si>
+    <t>CMP</t>
   </si>
   <si>
     <t>Sequence Diagram</t>
@@ -2864,76 +2867,76 @@
       <c r="AA60" s="18"/>
       <c r="AB60" s="18"/>
     </row>
-    <row r="61">
-      <c r="C61" s="12"/>
-      <c r="D61" s="13"/>
-      <c r="E61" s="12"/>
-      <c r="F61" s="13"/>
-      <c r="G61" s="13"/>
-      <c r="H61" s="10"/>
-      <c r="I61" s="13"/>
-      <c r="J61" s="13"/>
-      <c r="K61" s="13"/>
-      <c r="L61" s="13"/>
-      <c r="M61" s="13"/>
-      <c r="N61" s="13"/>
-      <c r="O61" s="13"/>
-      <c r="P61" s="13"/>
-      <c r="Q61" s="13"/>
-      <c r="R61" s="13"/>
-      <c r="S61" s="13"/>
-      <c r="T61" s="13"/>
-      <c r="U61" s="13"/>
-      <c r="V61" s="13"/>
-      <c r="W61" s="13"/>
-      <c r="X61" s="13"/>
-      <c r="Y61" s="13"/>
-      <c r="Z61" s="13"/>
-      <c r="AA61" s="13"/>
-      <c r="AB61" s="13"/>
-    </row>
-    <row r="62" ht="43.5" customHeight="1">
-      <c r="C62" s="4" t="s">
+    <row r="61" ht="33.0" customHeight="1">
+      <c r="D61" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="D62" s="8" t="s">
+      <c r="E61" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="F61" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="G61" s="17">
+        <v>1.0</v>
+      </c>
+      <c r="H61" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I61" s="18"/>
+      <c r="J61" s="18"/>
+      <c r="K61" s="18"/>
+      <c r="L61" s="18"/>
+      <c r="M61" s="18"/>
+      <c r="N61" s="18"/>
+      <c r="O61" s="18"/>
+      <c r="P61" s="18"/>
+      <c r="Q61" s="18"/>
+      <c r="R61" s="18"/>
+      <c r="S61" s="18"/>
+      <c r="T61" s="18"/>
+      <c r="U61" s="18"/>
+      <c r="V61" s="18"/>
+      <c r="W61" s="18"/>
+      <c r="X61" s="18"/>
+      <c r="Y61" s="18"/>
+      <c r="Z61" s="18"/>
+      <c r="AA61" s="18"/>
+      <c r="AB61" s="18"/>
+    </row>
+    <row r="62">
+      <c r="C62" s="12"/>
+      <c r="D62" s="13"/>
+      <c r="E62" s="12"/>
+      <c r="F62" s="13"/>
+      <c r="G62" s="13"/>
+      <c r="H62" s="10"/>
+      <c r="I62" s="13"/>
+      <c r="J62" s="13"/>
+      <c r="K62" s="13"/>
+      <c r="L62" s="13"/>
+      <c r="M62" s="13"/>
+      <c r="N62" s="13"/>
+      <c r="O62" s="13"/>
+      <c r="P62" s="13"/>
+      <c r="Q62" s="13"/>
+      <c r="R62" s="13"/>
+      <c r="S62" s="13"/>
+      <c r="T62" s="13"/>
+      <c r="U62" s="13"/>
+      <c r="V62" s="13"/>
+      <c r="W62" s="13"/>
+      <c r="X62" s="13"/>
+      <c r="Y62" s="13"/>
+      <c r="Z62" s="13"/>
+      <c r="AA62" s="13"/>
+      <c r="AB62" s="13"/>
+    </row>
+    <row r="63" ht="43.5" customHeight="1">
+      <c r="C63" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="E62" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F62" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G62" s="5">
-        <v>3.0</v>
-      </c>
-      <c r="H62" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I62" s="6"/>
-      <c r="J62" s="6"/>
-      <c r="K62" s="6"/>
-      <c r="L62" s="6"/>
-      <c r="M62" s="6"/>
-      <c r="N62" s="6"/>
-      <c r="O62" s="6"/>
-      <c r="P62" s="6"/>
-      <c r="Q62" s="6"/>
-      <c r="R62" s="6"/>
-      <c r="S62" s="6"/>
-      <c r="T62" s="6"/>
-      <c r="U62" s="6"/>
-      <c r="V62" s="6"/>
-      <c r="W62" s="6"/>
-      <c r="X62" s="6"/>
-      <c r="Y62" s="6"/>
-      <c r="Z62" s="6"/>
-      <c r="AA62" s="6"/>
-      <c r="AB62" s="6"/>
-    </row>
-    <row r="63" ht="39.0" customHeight="1">
-      <c r="D63" s="19" t="s">
+      <c r="D63" s="8" t="s">
         <v>87</v>
       </c>
       <c r="E63" s="4" t="s">
@@ -2969,7 +2972,7 @@
       <c r="AA63" s="6"/>
       <c r="AB63" s="6"/>
     </row>
-    <row r="64" ht="42.75" customHeight="1">
+    <row r="64" ht="39.0" customHeight="1">
       <c r="D64" s="19" t="s">
         <v>88</v>
       </c>
@@ -2977,10 +2980,10 @@
         <v>42</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="G64" s="5">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="H64" s="5" t="s">
         <v>14</v>
@@ -3006,7 +3009,7 @@
       <c r="AA64" s="6"/>
       <c r="AB64" s="6"/>
     </row>
-    <row r="65" ht="45.0" customHeight="1">
+    <row r="65" ht="42.75" customHeight="1">
       <c r="D65" s="19" t="s">
         <v>89</v>
       </c>
@@ -3080,67 +3083,75 @@
       <c r="AA66" s="6"/>
       <c r="AB66" s="6"/>
     </row>
-    <row r="67">
-      <c r="C67" s="12"/>
-      <c r="D67" s="13"/>
-      <c r="E67" s="12"/>
-      <c r="F67" s="13"/>
-      <c r="G67" s="13"/>
-      <c r="H67" s="10"/>
-      <c r="I67" s="13"/>
-      <c r="J67" s="13"/>
-      <c r="K67" s="13"/>
-      <c r="L67" s="13"/>
-      <c r="M67" s="13"/>
-      <c r="N67" s="13"/>
-      <c r="O67" s="13"/>
-      <c r="P67" s="13"/>
-      <c r="Q67" s="13"/>
-      <c r="R67" s="13"/>
-      <c r="S67" s="13"/>
-      <c r="T67" s="13"/>
-      <c r="U67" s="13"/>
-      <c r="V67" s="13"/>
-      <c r="W67" s="13"/>
-      <c r="X67" s="13"/>
-      <c r="Y67" s="13"/>
-      <c r="Z67" s="13"/>
-      <c r="AA67" s="13"/>
-      <c r="AB67" s="13"/>
+    <row r="67" ht="45.0" customHeight="1">
+      <c r="D67" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G67" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="H67" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I67" s="6"/>
+      <c r="J67" s="6"/>
+      <c r="K67" s="6"/>
+      <c r="L67" s="6"/>
+      <c r="M67" s="6"/>
+      <c r="N67" s="6"/>
+      <c r="O67" s="6"/>
+      <c r="P67" s="6"/>
+      <c r="Q67" s="6"/>
+      <c r="R67" s="6"/>
+      <c r="S67" s="6"/>
+      <c r="T67" s="6"/>
+      <c r="U67" s="6"/>
+      <c r="V67" s="6"/>
+      <c r="W67" s="6"/>
+      <c r="X67" s="6"/>
+      <c r="Y67" s="6"/>
+      <c r="Z67" s="6"/>
+      <c r="AA67" s="6"/>
+      <c r="AB67" s="6"/>
     </row>
     <row r="68">
-      <c r="A68" s="20"/>
-      <c r="B68" s="20"/>
-      <c r="C68" s="20"/>
-      <c r="D68" s="18"/>
-      <c r="E68" s="20"/>
-      <c r="F68" s="18"/>
-      <c r="G68" s="18"/>
-      <c r="H68" s="5"/>
-      <c r="I68" s="18"/>
-      <c r="J68" s="18"/>
-      <c r="K68" s="18"/>
-      <c r="L68" s="18"/>
-      <c r="M68" s="18"/>
-      <c r="N68" s="18"/>
-      <c r="O68" s="18"/>
-      <c r="P68" s="18"/>
-      <c r="Q68" s="18"/>
-      <c r="R68" s="18"/>
-      <c r="S68" s="18"/>
-      <c r="T68" s="18"/>
-      <c r="U68" s="18"/>
-      <c r="V68" s="18"/>
-      <c r="W68" s="18"/>
-      <c r="X68" s="18"/>
-      <c r="Y68" s="18"/>
-      <c r="Z68" s="18"/>
-      <c r="AA68" s="18"/>
-      <c r="AB68" s="18"/>
+      <c r="C68" s="12"/>
+      <c r="D68" s="13"/>
+      <c r="E68" s="12"/>
+      <c r="F68" s="13"/>
+      <c r="G68" s="13"/>
+      <c r="H68" s="10"/>
+      <c r="I68" s="13"/>
+      <c r="J68" s="13"/>
+      <c r="K68" s="13"/>
+      <c r="L68" s="13"/>
+      <c r="M68" s="13"/>
+      <c r="N68" s="13"/>
+      <c r="O68" s="13"/>
+      <c r="P68" s="13"/>
+      <c r="Q68" s="13"/>
+      <c r="R68" s="13"/>
+      <c r="S68" s="13"/>
+      <c r="T68" s="13"/>
+      <c r="U68" s="13"/>
+      <c r="V68" s="13"/>
+      <c r="W68" s="13"/>
+      <c r="X68" s="13"/>
+      <c r="Y68" s="13"/>
+      <c r="Z68" s="13"/>
+      <c r="AA68" s="13"/>
+      <c r="AB68" s="13"/>
     </row>
     <row r="69">
       <c r="A69" s="20"/>
       <c r="B69" s="20"/>
+      <c r="C69" s="20"/>
       <c r="D69" s="18"/>
       <c r="E69" s="20"/>
       <c r="F69" s="18"/>
@@ -3284,68 +3295,68 @@
       <c r="AB73" s="18"/>
     </row>
     <row r="74">
-      <c r="A74" s="12"/>
-      <c r="B74" s="12"/>
-      <c r="C74" s="12"/>
-      <c r="D74" s="13"/>
-      <c r="E74" s="12"/>
-      <c r="F74" s="13"/>
-      <c r="G74" s="13"/>
-      <c r="H74" s="10"/>
-      <c r="I74" s="13"/>
-      <c r="J74" s="13"/>
-      <c r="K74" s="13"/>
-      <c r="L74" s="13"/>
-      <c r="M74" s="13"/>
-      <c r="N74" s="13"/>
-      <c r="O74" s="13"/>
-      <c r="P74" s="13"/>
-      <c r="Q74" s="13"/>
-      <c r="R74" s="13"/>
-      <c r="S74" s="13"/>
-      <c r="T74" s="13"/>
-      <c r="U74" s="13"/>
-      <c r="V74" s="13"/>
-      <c r="W74" s="13"/>
-      <c r="X74" s="13"/>
-      <c r="Y74" s="13"/>
-      <c r="Z74" s="13"/>
-      <c r="AA74" s="13"/>
-      <c r="AB74" s="13"/>
+      <c r="A74" s="20"/>
+      <c r="B74" s="20"/>
+      <c r="D74" s="18"/>
+      <c r="E74" s="20"/>
+      <c r="F74" s="18"/>
+      <c r="G74" s="18"/>
+      <c r="H74" s="5"/>
+      <c r="I74" s="18"/>
+      <c r="J74" s="18"/>
+      <c r="K74" s="18"/>
+      <c r="L74" s="18"/>
+      <c r="M74" s="18"/>
+      <c r="N74" s="18"/>
+      <c r="O74" s="18"/>
+      <c r="P74" s="18"/>
+      <c r="Q74" s="18"/>
+      <c r="R74" s="18"/>
+      <c r="S74" s="18"/>
+      <c r="T74" s="18"/>
+      <c r="U74" s="18"/>
+      <c r="V74" s="18"/>
+      <c r="W74" s="18"/>
+      <c r="X74" s="18"/>
+      <c r="Y74" s="18"/>
+      <c r="Z74" s="18"/>
+      <c r="AA74" s="18"/>
+      <c r="AB74" s="18"/>
     </row>
     <row r="75">
-      <c r="A75" s="20"/>
-      <c r="B75" s="20"/>
-      <c r="C75" s="20"/>
-      <c r="D75" s="18"/>
-      <c r="E75" s="20"/>
-      <c r="F75" s="18"/>
-      <c r="G75" s="18"/>
-      <c r="H75" s="5"/>
-      <c r="I75" s="18"/>
-      <c r="J75" s="18"/>
-      <c r="K75" s="18"/>
-      <c r="L75" s="18"/>
-      <c r="M75" s="18"/>
-      <c r="N75" s="18"/>
-      <c r="O75" s="18"/>
-      <c r="P75" s="18"/>
-      <c r="Q75" s="18"/>
-      <c r="R75" s="18"/>
-      <c r="S75" s="18"/>
-      <c r="T75" s="18"/>
-      <c r="U75" s="18"/>
-      <c r="V75" s="18"/>
-      <c r="W75" s="18"/>
-      <c r="X75" s="18"/>
-      <c r="Y75" s="18"/>
-      <c r="Z75" s="18"/>
-      <c r="AA75" s="18"/>
-      <c r="AB75" s="18"/>
+      <c r="A75" s="12"/>
+      <c r="B75" s="12"/>
+      <c r="C75" s="12"/>
+      <c r="D75" s="13"/>
+      <c r="E75" s="12"/>
+      <c r="F75" s="13"/>
+      <c r="G75" s="13"/>
+      <c r="H75" s="10"/>
+      <c r="I75" s="13"/>
+      <c r="J75" s="13"/>
+      <c r="K75" s="13"/>
+      <c r="L75" s="13"/>
+      <c r="M75" s="13"/>
+      <c r="N75" s="13"/>
+      <c r="O75" s="13"/>
+      <c r="P75" s="13"/>
+      <c r="Q75" s="13"/>
+      <c r="R75" s="13"/>
+      <c r="S75" s="13"/>
+      <c r="T75" s="13"/>
+      <c r="U75" s="13"/>
+      <c r="V75" s="13"/>
+      <c r="W75" s="13"/>
+      <c r="X75" s="13"/>
+      <c r="Y75" s="13"/>
+      <c r="Z75" s="13"/>
+      <c r="AA75" s="13"/>
+      <c r="AB75" s="13"/>
     </row>
     <row r="76">
       <c r="A76" s="20"/>
       <c r="B76" s="20"/>
+      <c r="C76" s="20"/>
       <c r="D76" s="18"/>
       <c r="E76" s="20"/>
       <c r="F76" s="18"/>
@@ -3489,68 +3500,68 @@
       <c r="AB80" s="18"/>
     </row>
     <row r="81">
-      <c r="A81" s="12"/>
-      <c r="B81" s="12"/>
-      <c r="C81" s="12"/>
-      <c r="D81" s="13"/>
-      <c r="E81" s="12"/>
-      <c r="F81" s="13"/>
-      <c r="G81" s="13"/>
+      <c r="A81" s="20"/>
+      <c r="B81" s="20"/>
+      <c r="D81" s="18"/>
+      <c r="E81" s="20"/>
+      <c r="F81" s="18"/>
+      <c r="G81" s="18"/>
       <c r="H81" s="5"/>
-      <c r="I81" s="13"/>
-      <c r="J81" s="13"/>
-      <c r="K81" s="13"/>
-      <c r="L81" s="13"/>
-      <c r="M81" s="13"/>
-      <c r="N81" s="13"/>
-      <c r="O81" s="13"/>
-      <c r="P81" s="13"/>
-      <c r="Q81" s="13"/>
-      <c r="R81" s="13"/>
-      <c r="S81" s="13"/>
-      <c r="T81" s="13"/>
-      <c r="U81" s="13"/>
-      <c r="V81" s="13"/>
-      <c r="W81" s="13"/>
-      <c r="X81" s="13"/>
-      <c r="Y81" s="13"/>
-      <c r="Z81" s="13"/>
-      <c r="AA81" s="13"/>
-      <c r="AB81" s="13"/>
+      <c r="I81" s="18"/>
+      <c r="J81" s="18"/>
+      <c r="K81" s="18"/>
+      <c r="L81" s="18"/>
+      <c r="M81" s="18"/>
+      <c r="N81" s="18"/>
+      <c r="O81" s="18"/>
+      <c r="P81" s="18"/>
+      <c r="Q81" s="18"/>
+      <c r="R81" s="18"/>
+      <c r="S81" s="18"/>
+      <c r="T81" s="18"/>
+      <c r="U81" s="18"/>
+      <c r="V81" s="18"/>
+      <c r="W81" s="18"/>
+      <c r="X81" s="18"/>
+      <c r="Y81" s="18"/>
+      <c r="Z81" s="18"/>
+      <c r="AA81" s="18"/>
+      <c r="AB81" s="18"/>
     </row>
     <row r="82">
-      <c r="A82" s="20"/>
-      <c r="B82" s="20"/>
-      <c r="C82" s="20"/>
-      <c r="D82" s="18"/>
-      <c r="E82" s="20"/>
-      <c r="F82" s="18"/>
-      <c r="G82" s="18"/>
+      <c r="A82" s="12"/>
+      <c r="B82" s="12"/>
+      <c r="C82" s="12"/>
+      <c r="D82" s="13"/>
+      <c r="E82" s="12"/>
+      <c r="F82" s="13"/>
+      <c r="G82" s="13"/>
       <c r="H82" s="5"/>
-      <c r="I82" s="18"/>
-      <c r="J82" s="18"/>
-      <c r="K82" s="18"/>
-      <c r="L82" s="18"/>
-      <c r="M82" s="18"/>
-      <c r="N82" s="18"/>
-      <c r="O82" s="18"/>
-      <c r="P82" s="18"/>
-      <c r="Q82" s="18"/>
-      <c r="R82" s="18"/>
-      <c r="S82" s="18"/>
-      <c r="T82" s="18"/>
-      <c r="U82" s="18"/>
-      <c r="V82" s="18"/>
-      <c r="W82" s="18"/>
-      <c r="X82" s="18"/>
-      <c r="Y82" s="18"/>
-      <c r="Z82" s="18"/>
-      <c r="AA82" s="18"/>
-      <c r="AB82" s="18"/>
+      <c r="I82" s="13"/>
+      <c r="J82" s="13"/>
+      <c r="K82" s="13"/>
+      <c r="L82" s="13"/>
+      <c r="M82" s="13"/>
+      <c r="N82" s="13"/>
+      <c r="O82" s="13"/>
+      <c r="P82" s="13"/>
+      <c r="Q82" s="13"/>
+      <c r="R82" s="13"/>
+      <c r="S82" s="13"/>
+      <c r="T82" s="13"/>
+      <c r="U82" s="13"/>
+      <c r="V82" s="13"/>
+      <c r="W82" s="13"/>
+      <c r="X82" s="13"/>
+      <c r="Y82" s="13"/>
+      <c r="Z82" s="13"/>
+      <c r="AA82" s="13"/>
+      <c r="AB82" s="13"/>
     </row>
     <row r="83">
       <c r="A83" s="20"/>
       <c r="B83" s="20"/>
+      <c r="C83" s="20"/>
       <c r="D83" s="18"/>
       <c r="E83" s="20"/>
       <c r="F83" s="18"/>
@@ -3694,68 +3705,68 @@
       <c r="AB87" s="18"/>
     </row>
     <row r="88">
-      <c r="A88" s="12"/>
-      <c r="B88" s="12"/>
-      <c r="C88" s="12"/>
-      <c r="D88" s="13"/>
-      <c r="E88" s="12"/>
-      <c r="F88" s="13"/>
-      <c r="G88" s="13"/>
+      <c r="A88" s="20"/>
+      <c r="B88" s="20"/>
+      <c r="D88" s="18"/>
+      <c r="E88" s="20"/>
+      <c r="F88" s="18"/>
+      <c r="G88" s="18"/>
       <c r="H88" s="5"/>
-      <c r="I88" s="13"/>
-      <c r="J88" s="13"/>
-      <c r="K88" s="13"/>
-      <c r="L88" s="13"/>
-      <c r="M88" s="13"/>
-      <c r="N88" s="13"/>
-      <c r="O88" s="13"/>
-      <c r="P88" s="13"/>
-      <c r="Q88" s="13"/>
-      <c r="R88" s="13"/>
-      <c r="S88" s="13"/>
-      <c r="T88" s="13"/>
-      <c r="U88" s="13"/>
-      <c r="V88" s="13"/>
-      <c r="W88" s="13"/>
-      <c r="X88" s="13"/>
-      <c r="Y88" s="13"/>
-      <c r="Z88" s="13"/>
-      <c r="AA88" s="13"/>
-      <c r="AB88" s="13"/>
+      <c r="I88" s="18"/>
+      <c r="J88" s="18"/>
+      <c r="K88" s="18"/>
+      <c r="L88" s="18"/>
+      <c r="M88" s="18"/>
+      <c r="N88" s="18"/>
+      <c r="O88" s="18"/>
+      <c r="P88" s="18"/>
+      <c r="Q88" s="18"/>
+      <c r="R88" s="18"/>
+      <c r="S88" s="18"/>
+      <c r="T88" s="18"/>
+      <c r="U88" s="18"/>
+      <c r="V88" s="18"/>
+      <c r="W88" s="18"/>
+      <c r="X88" s="18"/>
+      <c r="Y88" s="18"/>
+      <c r="Z88" s="18"/>
+      <c r="AA88" s="18"/>
+      <c r="AB88" s="18"/>
     </row>
     <row r="89">
-      <c r="A89" s="20"/>
-      <c r="B89" s="20"/>
-      <c r="C89" s="20"/>
-      <c r="D89" s="18"/>
-      <c r="E89" s="20"/>
-      <c r="F89" s="18"/>
-      <c r="G89" s="18"/>
+      <c r="A89" s="12"/>
+      <c r="B89" s="12"/>
+      <c r="C89" s="12"/>
+      <c r="D89" s="13"/>
+      <c r="E89" s="12"/>
+      <c r="F89" s="13"/>
+      <c r="G89" s="13"/>
       <c r="H89" s="5"/>
-      <c r="I89" s="18"/>
-      <c r="J89" s="18"/>
-      <c r="K89" s="18"/>
-      <c r="L89" s="18"/>
-      <c r="M89" s="18"/>
-      <c r="N89" s="18"/>
-      <c r="O89" s="18"/>
-      <c r="P89" s="18"/>
-      <c r="Q89" s="18"/>
-      <c r="R89" s="18"/>
-      <c r="S89" s="18"/>
-      <c r="T89" s="18"/>
-      <c r="U89" s="18"/>
-      <c r="V89" s="18"/>
-      <c r="W89" s="18"/>
-      <c r="X89" s="18"/>
-      <c r="Y89" s="18"/>
-      <c r="Z89" s="18"/>
-      <c r="AA89" s="18"/>
-      <c r="AB89" s="18"/>
+      <c r="I89" s="13"/>
+      <c r="J89" s="13"/>
+      <c r="K89" s="13"/>
+      <c r="L89" s="13"/>
+      <c r="M89" s="13"/>
+      <c r="N89" s="13"/>
+      <c r="O89" s="13"/>
+      <c r="P89" s="13"/>
+      <c r="Q89" s="13"/>
+      <c r="R89" s="13"/>
+      <c r="S89" s="13"/>
+      <c r="T89" s="13"/>
+      <c r="U89" s="13"/>
+      <c r="V89" s="13"/>
+      <c r="W89" s="13"/>
+      <c r="X89" s="13"/>
+      <c r="Y89" s="13"/>
+      <c r="Z89" s="13"/>
+      <c r="AA89" s="13"/>
+      <c r="AB89" s="13"/>
     </row>
     <row r="90">
       <c r="A90" s="20"/>
       <c r="B90" s="20"/>
+      <c r="C90" s="20"/>
       <c r="D90" s="18"/>
       <c r="E90" s="20"/>
       <c r="F90" s="18"/>
@@ -3899,68 +3910,68 @@
       <c r="AB94" s="18"/>
     </row>
     <row r="95">
-      <c r="A95" s="12"/>
-      <c r="B95" s="12"/>
-      <c r="C95" s="12"/>
-      <c r="D95" s="13"/>
-      <c r="E95" s="12"/>
-      <c r="F95" s="13"/>
-      <c r="G95" s="13"/>
+      <c r="A95" s="20"/>
+      <c r="B95" s="20"/>
+      <c r="D95" s="18"/>
+      <c r="E95" s="20"/>
+      <c r="F95" s="18"/>
+      <c r="G95" s="18"/>
       <c r="H95" s="5"/>
-      <c r="I95" s="13"/>
-      <c r="J95" s="13"/>
-      <c r="K95" s="13"/>
-      <c r="L95" s="13"/>
-      <c r="M95" s="13"/>
-      <c r="N95" s="13"/>
-      <c r="O95" s="13"/>
-      <c r="P95" s="13"/>
-      <c r="Q95" s="13"/>
-      <c r="R95" s="13"/>
-      <c r="S95" s="13"/>
-      <c r="T95" s="13"/>
-      <c r="U95" s="13"/>
-      <c r="V95" s="13"/>
-      <c r="W95" s="13"/>
-      <c r="X95" s="13"/>
-      <c r="Y95" s="13"/>
-      <c r="Z95" s="13"/>
-      <c r="AA95" s="13"/>
-      <c r="AB95" s="13"/>
+      <c r="I95" s="18"/>
+      <c r="J95" s="18"/>
+      <c r="K95" s="18"/>
+      <c r="L95" s="18"/>
+      <c r="M95" s="18"/>
+      <c r="N95" s="18"/>
+      <c r="O95" s="18"/>
+      <c r="P95" s="18"/>
+      <c r="Q95" s="18"/>
+      <c r="R95" s="18"/>
+      <c r="S95" s="18"/>
+      <c r="T95" s="18"/>
+      <c r="U95" s="18"/>
+      <c r="V95" s="18"/>
+      <c r="W95" s="18"/>
+      <c r="X95" s="18"/>
+      <c r="Y95" s="18"/>
+      <c r="Z95" s="18"/>
+      <c r="AA95" s="18"/>
+      <c r="AB95" s="18"/>
     </row>
     <row r="96">
-      <c r="A96" s="20"/>
-      <c r="B96" s="20"/>
-      <c r="C96" s="20"/>
-      <c r="D96" s="18"/>
-      <c r="E96" s="20"/>
-      <c r="F96" s="18"/>
-      <c r="G96" s="18"/>
+      <c r="A96" s="12"/>
+      <c r="B96" s="12"/>
+      <c r="C96" s="12"/>
+      <c r="D96" s="13"/>
+      <c r="E96" s="12"/>
+      <c r="F96" s="13"/>
+      <c r="G96" s="13"/>
       <c r="H96" s="5"/>
-      <c r="I96" s="18"/>
-      <c r="J96" s="18"/>
-      <c r="K96" s="18"/>
-      <c r="L96" s="18"/>
-      <c r="M96" s="18"/>
-      <c r="N96" s="18"/>
-      <c r="O96" s="18"/>
-      <c r="P96" s="18"/>
-      <c r="Q96" s="18"/>
-      <c r="R96" s="18"/>
-      <c r="S96" s="18"/>
-      <c r="T96" s="18"/>
-      <c r="U96" s="18"/>
-      <c r="V96" s="18"/>
-      <c r="W96" s="18"/>
-      <c r="X96" s="18"/>
-      <c r="Y96" s="18"/>
-      <c r="Z96" s="18"/>
-      <c r="AA96" s="18"/>
-      <c r="AB96" s="18"/>
+      <c r="I96" s="13"/>
+      <c r="J96" s="13"/>
+      <c r="K96" s="13"/>
+      <c r="L96" s="13"/>
+      <c r="M96" s="13"/>
+      <c r="N96" s="13"/>
+      <c r="O96" s="13"/>
+      <c r="P96" s="13"/>
+      <c r="Q96" s="13"/>
+      <c r="R96" s="13"/>
+      <c r="S96" s="13"/>
+      <c r="T96" s="13"/>
+      <c r="U96" s="13"/>
+      <c r="V96" s="13"/>
+      <c r="W96" s="13"/>
+      <c r="X96" s="13"/>
+      <c r="Y96" s="13"/>
+      <c r="Z96" s="13"/>
+      <c r="AA96" s="13"/>
+      <c r="AB96" s="13"/>
     </row>
     <row r="97">
       <c r="A97" s="20"/>
       <c r="B97" s="20"/>
+      <c r="C97" s="20"/>
       <c r="D97" s="18"/>
       <c r="E97" s="20"/>
       <c r="F97" s="18"/>
@@ -4104,68 +4115,68 @@
       <c r="AB101" s="18"/>
     </row>
     <row r="102">
-      <c r="A102" s="12"/>
-      <c r="B102" s="12"/>
-      <c r="C102" s="12"/>
-      <c r="D102" s="13"/>
-      <c r="E102" s="12"/>
-      <c r="F102" s="13"/>
-      <c r="G102" s="13"/>
+      <c r="A102" s="20"/>
+      <c r="B102" s="20"/>
+      <c r="D102" s="18"/>
+      <c r="E102" s="20"/>
+      <c r="F102" s="18"/>
+      <c r="G102" s="18"/>
       <c r="H102" s="5"/>
-      <c r="I102" s="13"/>
-      <c r="J102" s="13"/>
-      <c r="K102" s="13"/>
-      <c r="L102" s="13"/>
-      <c r="M102" s="13"/>
-      <c r="N102" s="13"/>
-      <c r="O102" s="13"/>
-      <c r="P102" s="13"/>
-      <c r="Q102" s="13"/>
-      <c r="R102" s="13"/>
-      <c r="S102" s="13"/>
-      <c r="T102" s="13"/>
-      <c r="U102" s="13"/>
-      <c r="V102" s="13"/>
-      <c r="W102" s="13"/>
-      <c r="X102" s="13"/>
-      <c r="Y102" s="13"/>
-      <c r="Z102" s="13"/>
-      <c r="AA102" s="13"/>
-      <c r="AB102" s="13"/>
+      <c r="I102" s="18"/>
+      <c r="J102" s="18"/>
+      <c r="K102" s="18"/>
+      <c r="L102" s="18"/>
+      <c r="M102" s="18"/>
+      <c r="N102" s="18"/>
+      <c r="O102" s="18"/>
+      <c r="P102" s="18"/>
+      <c r="Q102" s="18"/>
+      <c r="R102" s="18"/>
+      <c r="S102" s="18"/>
+      <c r="T102" s="18"/>
+      <c r="U102" s="18"/>
+      <c r="V102" s="18"/>
+      <c r="W102" s="18"/>
+      <c r="X102" s="18"/>
+      <c r="Y102" s="18"/>
+      <c r="Z102" s="18"/>
+      <c r="AA102" s="18"/>
+      <c r="AB102" s="18"/>
     </row>
     <row r="103">
-      <c r="A103" s="20"/>
-      <c r="B103" s="20"/>
-      <c r="C103" s="20"/>
-      <c r="D103" s="18"/>
-      <c r="E103" s="20"/>
-      <c r="F103" s="18"/>
-      <c r="G103" s="18"/>
+      <c r="A103" s="12"/>
+      <c r="B103" s="12"/>
+      <c r="C103" s="12"/>
+      <c r="D103" s="13"/>
+      <c r="E103" s="12"/>
+      <c r="F103" s="13"/>
+      <c r="G103" s="13"/>
       <c r="H103" s="5"/>
-      <c r="I103" s="18"/>
-      <c r="J103" s="18"/>
-      <c r="K103" s="18"/>
-      <c r="L103" s="18"/>
-      <c r="M103" s="18"/>
-      <c r="N103" s="18"/>
-      <c r="O103" s="18"/>
-      <c r="P103" s="18"/>
-      <c r="Q103" s="18"/>
-      <c r="R103" s="18"/>
-      <c r="S103" s="18"/>
-      <c r="T103" s="18"/>
-      <c r="U103" s="18"/>
-      <c r="V103" s="18"/>
-      <c r="W103" s="18"/>
-      <c r="X103" s="18"/>
-      <c r="Y103" s="18"/>
-      <c r="Z103" s="18"/>
-      <c r="AA103" s="18"/>
-      <c r="AB103" s="18"/>
+      <c r="I103" s="13"/>
+      <c r="J103" s="13"/>
+      <c r="K103" s="13"/>
+      <c r="L103" s="13"/>
+      <c r="M103" s="13"/>
+      <c r="N103" s="13"/>
+      <c r="O103" s="13"/>
+      <c r="P103" s="13"/>
+      <c r="Q103" s="13"/>
+      <c r="R103" s="13"/>
+      <c r="S103" s="13"/>
+      <c r="T103" s="13"/>
+      <c r="U103" s="13"/>
+      <c r="V103" s="13"/>
+      <c r="W103" s="13"/>
+      <c r="X103" s="13"/>
+      <c r="Y103" s="13"/>
+      <c r="Z103" s="13"/>
+      <c r="AA103" s="13"/>
+      <c r="AB103" s="13"/>
     </row>
     <row r="104">
       <c r="A104" s="20"/>
       <c r="B104" s="20"/>
+      <c r="C104" s="20"/>
       <c r="D104" s="18"/>
       <c r="E104" s="20"/>
       <c r="F104" s="18"/>
@@ -4309,64 +4320,63 @@
       <c r="AB108" s="18"/>
     </row>
     <row r="109">
-      <c r="A109" s="12"/>
-      <c r="B109" s="12"/>
-      <c r="C109" s="12"/>
-      <c r="D109" s="13"/>
-      <c r="E109" s="12"/>
-      <c r="F109" s="13"/>
-      <c r="G109" s="13"/>
+      <c r="A109" s="20"/>
+      <c r="B109" s="20"/>
+      <c r="D109" s="18"/>
+      <c r="E109" s="20"/>
+      <c r="F109" s="18"/>
+      <c r="G109" s="18"/>
       <c r="H109" s="5"/>
-      <c r="I109" s="13"/>
-      <c r="J109" s="13"/>
-      <c r="K109" s="13"/>
-      <c r="L109" s="13"/>
-      <c r="M109" s="13"/>
-      <c r="N109" s="13"/>
-      <c r="O109" s="13"/>
-      <c r="P109" s="13"/>
-      <c r="Q109" s="13"/>
-      <c r="R109" s="13"/>
-      <c r="S109" s="13"/>
-      <c r="T109" s="13"/>
-      <c r="U109" s="13"/>
-      <c r="V109" s="13"/>
-      <c r="W109" s="13"/>
-      <c r="X109" s="13"/>
-      <c r="Y109" s="13"/>
-      <c r="Z109" s="13"/>
-      <c r="AA109" s="13"/>
-      <c r="AB109" s="13"/>
+      <c r="I109" s="18"/>
+      <c r="J109" s="18"/>
+      <c r="K109" s="18"/>
+      <c r="L109" s="18"/>
+      <c r="M109" s="18"/>
+      <c r="N109" s="18"/>
+      <c r="O109" s="18"/>
+      <c r="P109" s="18"/>
+      <c r="Q109" s="18"/>
+      <c r="R109" s="18"/>
+      <c r="S109" s="18"/>
+      <c r="T109" s="18"/>
+      <c r="U109" s="18"/>
+      <c r="V109" s="18"/>
+      <c r="W109" s="18"/>
+      <c r="X109" s="18"/>
+      <c r="Y109" s="18"/>
+      <c r="Z109" s="18"/>
+      <c r="AA109" s="18"/>
+      <c r="AB109" s="18"/>
     </row>
     <row r="110">
-      <c r="A110" s="21"/>
-      <c r="B110" s="21"/>
-      <c r="C110" s="21"/>
-      <c r="D110" s="6"/>
-      <c r="E110" s="21"/>
-      <c r="F110" s="6"/>
-      <c r="G110" s="6"/>
+      <c r="A110" s="12"/>
+      <c r="B110" s="12"/>
+      <c r="C110" s="12"/>
+      <c r="D110" s="13"/>
+      <c r="E110" s="12"/>
+      <c r="F110" s="13"/>
+      <c r="G110" s="13"/>
       <c r="H110" s="5"/>
-      <c r="I110" s="6"/>
-      <c r="J110" s="6"/>
-      <c r="K110" s="6"/>
-      <c r="L110" s="6"/>
-      <c r="M110" s="6"/>
-      <c r="N110" s="6"/>
-      <c r="O110" s="6"/>
-      <c r="P110" s="6"/>
-      <c r="Q110" s="6"/>
-      <c r="R110" s="6"/>
-      <c r="S110" s="6"/>
-      <c r="T110" s="6"/>
-      <c r="U110" s="6"/>
-      <c r="V110" s="6"/>
-      <c r="W110" s="6"/>
-      <c r="X110" s="6"/>
-      <c r="Y110" s="6"/>
-      <c r="Z110" s="6"/>
-      <c r="AA110" s="6"/>
-      <c r="AB110" s="6"/>
+      <c r="I110" s="13"/>
+      <c r="J110" s="13"/>
+      <c r="K110" s="13"/>
+      <c r="L110" s="13"/>
+      <c r="M110" s="13"/>
+      <c r="N110" s="13"/>
+      <c r="O110" s="13"/>
+      <c r="P110" s="13"/>
+      <c r="Q110" s="13"/>
+      <c r="R110" s="13"/>
+      <c r="S110" s="13"/>
+      <c r="T110" s="13"/>
+      <c r="U110" s="13"/>
+      <c r="V110" s="13"/>
+      <c r="W110" s="13"/>
+      <c r="X110" s="13"/>
+      <c r="Y110" s="13"/>
+      <c r="Z110" s="13"/>
+      <c r="AA110" s="13"/>
+      <c r="AB110" s="13"/>
     </row>
     <row r="111">
       <c r="A111" s="21"/>
@@ -7706,9 +7716,7 @@
       <c r="E222" s="21"/>
       <c r="F222" s="6"/>
       <c r="G222" s="6"/>
-      <c r="H222" s="5" t="s">
-        <v>21</v>
-      </c>
+      <c r="H222" s="5"/>
       <c r="I222" s="6"/>
       <c r="J222" s="6"/>
       <c r="K222" s="6"/>
@@ -32498,33 +32506,65 @@
       <c r="AA996" s="6"/>
       <c r="AB996" s="6"/>
     </row>
+    <row r="997">
+      <c r="A997" s="21"/>
+      <c r="B997" s="21"/>
+      <c r="C997" s="21"/>
+      <c r="D997" s="6"/>
+      <c r="E997" s="21"/>
+      <c r="F997" s="6"/>
+      <c r="G997" s="6"/>
+      <c r="H997" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I997" s="6"/>
+      <c r="J997" s="6"/>
+      <c r="K997" s="6"/>
+      <c r="L997" s="6"/>
+      <c r="M997" s="6"/>
+      <c r="N997" s="6"/>
+      <c r="O997" s="6"/>
+      <c r="P997" s="6"/>
+      <c r="Q997" s="6"/>
+      <c r="R997" s="6"/>
+      <c r="S997" s="6"/>
+      <c r="T997" s="6"/>
+      <c r="U997" s="6"/>
+      <c r="V997" s="6"/>
+      <c r="W997" s="6"/>
+      <c r="X997" s="6"/>
+      <c r="Y997" s="6"/>
+      <c r="Z997" s="6"/>
+      <c r="AA997" s="6"/>
+      <c r="AB997" s="6"/>
+    </row>
   </sheetData>
   <mergeCells count="25">
     <mergeCell ref="C14:C18"/>
     <mergeCell ref="C20:C24"/>
     <mergeCell ref="C9:C12"/>
     <mergeCell ref="C26:C30"/>
-    <mergeCell ref="C48:C55"/>
-    <mergeCell ref="E57:E60"/>
-    <mergeCell ref="E48:E51"/>
-    <mergeCell ref="E52:E55"/>
+    <mergeCell ref="C2:C7"/>
+    <mergeCell ref="C32:C43"/>
+    <mergeCell ref="A2:A55"/>
+    <mergeCell ref="B2:B55"/>
     <mergeCell ref="E2:E7"/>
     <mergeCell ref="E9:E12"/>
     <mergeCell ref="E14:E18"/>
     <mergeCell ref="E20:E24"/>
     <mergeCell ref="E26:E30"/>
-    <mergeCell ref="A2:A55"/>
-    <mergeCell ref="B2:B55"/>
-    <mergeCell ref="C89:C94"/>
-    <mergeCell ref="C96:C101"/>
-    <mergeCell ref="C103:C108"/>
-    <mergeCell ref="C2:C7"/>
-    <mergeCell ref="C32:C43"/>
-    <mergeCell ref="C57:C60"/>
-    <mergeCell ref="C68:C73"/>
-    <mergeCell ref="C75:C80"/>
-    <mergeCell ref="C82:C87"/>
-    <mergeCell ref="C62:C66"/>
+    <mergeCell ref="C76:C81"/>
+    <mergeCell ref="C83:C88"/>
+    <mergeCell ref="C90:C95"/>
+    <mergeCell ref="C97:C102"/>
+    <mergeCell ref="C104:C109"/>
+    <mergeCell ref="C48:C55"/>
+    <mergeCell ref="E48:E51"/>
+    <mergeCell ref="E52:E55"/>
+    <mergeCell ref="E57:E60"/>
+    <mergeCell ref="C63:C67"/>
+    <mergeCell ref="C69:C74"/>
+    <mergeCell ref="C57:C61"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -32552,16 +32592,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
@@ -32586,7 +32626,7 @@
     </row>
     <row r="2" ht="36.0" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>12</v>
@@ -32820,7 +32860,7 @@
     </row>
     <row r="9" ht="33.75" customHeight="1">
       <c r="A9" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B9" s="20" t="s">
         <v>12</v>
@@ -33054,7 +33094,7 @@
     </row>
     <row r="16" ht="35.25" customHeight="1">
       <c r="A16" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B16" s="16" t="s">
         <v>12</v>
@@ -33236,7 +33276,7 @@
         <v>10.0</v>
       </c>
       <c r="E21" s="26">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="F21" s="25"/>
       <c r="G21" s="25"/>
@@ -33288,7 +33328,7 @@
     </row>
     <row r="23" ht="34.5" customHeight="1">
       <c r="A23" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B23" s="16" t="s">
         <v>12</v>
@@ -33486,7 +33526,7 @@
     </row>
     <row r="30" ht="37.5" customHeight="1">
       <c r="A30" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B30" s="16" t="s">
         <v>12</v>
@@ -33684,7 +33724,7 @@
     </row>
     <row r="37" ht="36.0" customHeight="1">
       <c r="A37" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B37" s="16" t="s">
         <v>12</v>
